--- a/프로젝트/수학문제/수학문제정리.xlsx
+++ b/프로젝트/수학문제/수학문제정리.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\WinAPI_Serious\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\WinAPI_Serious\프로젝트\수학문제\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="산술" sheetId="3" r:id="rId1"/>
     <sheet name="기하" sheetId="4" r:id="rId2"/>
     <sheet name="교과서정리" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="435">
   <si>
     <t>여러 가지 문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1708,6 +1709,34 @@
   </si>
   <si>
     <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년/학기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2037,7 +2066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2206,28 +2235,151 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2236,209 +2388,104 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2722,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2739,197 +2786,197 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-      <c r="N2" s="80" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="86"/>
+      <c r="N2" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="82"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="102"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="89"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="80"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="80"/>
     </row>
     <row r="5" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="103"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="105"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
     </row>
     <row r="6" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="76" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="95" t="s">
         <v>395</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="77"/>
-      <c r="N6" s="89" t="s">
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="96"/>
+      <c r="N6" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="89" t="s">
+      <c r="O6" s="61"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="59" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="78"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="90"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="60"/>
     </row>
     <row r="8" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="78"/>
-      <c r="C8" s="76" t="s">
+      <c r="B8" s="94"/>
+      <c r="C8" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="76" t="s">
+      <c r="D8" s="96"/>
+      <c r="E8" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="76" t="s">
+      <c r="F8" s="96"/>
+      <c r="G8" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="76" t="s">
+      <c r="H8" s="96"/>
+      <c r="I8" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="76" t="s">
+      <c r="J8" s="96"/>
+      <c r="K8" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="77"/>
-      <c r="N8" s="56" t="s">
+      <c r="L8" s="96"/>
+      <c r="N8" s="65" t="s">
         <v>392</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="65" t="s">
         <v>391</v>
       </c>
-      <c r="P8" s="56" t="s">
+      <c r="P8" s="65" t="s">
         <v>390</v>
       </c>
       <c r="Q8" s="48"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="56" t="s">
+      <c r="S8" s="65" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="78"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="75"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="101"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
       <c r="Q9" s="41"/>
       <c r="R9" s="42"/>
-      <c r="S9" s="58"/>
+      <c r="S9" s="66"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="56">
+      <c r="B10" s="65">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2938,27 +2985,27 @@
       <c r="J10" s="7"/>
       <c r="K10" s="42"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="56" t="s">
+      <c r="N10" s="65" t="s">
         <v>388</v>
       </c>
       <c r="O10" s="51"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="56" t="s">
+      <c r="Q10" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="S10" s="59" t="s">
+      <c r="S10" s="70" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="57"/>
-      <c r="C11" s="66" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -2967,15 +3014,15 @@
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="57"/>
+      <c r="N11" s="71"/>
       <c r="O11" s="40"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
     </row>
     <row r="12" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="57"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
@@ -2986,21 +3033,21 @@
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
       <c r="L12" s="1"/>
-      <c r="N12" s="57"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
-      <c r="Q12" s="56" t="s">
+      <c r="Q12" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="R12" s="56" t="s">
+      <c r="R12" s="65" t="s">
         <v>383</v>
       </c>
-      <c r="S12" s="59" t="s">
+      <c r="S12" s="70" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="57"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="11"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
@@ -3011,65 +3058,65 @@
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
       <c r="L13" s="1"/>
-      <c r="N13" s="58"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="46"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="60"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
       <c r="L14" s="1"/>
-      <c r="N14" s="56" t="s">
+      <c r="N14" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="O14" s="56" t="s">
+      <c r="O14" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="P14" s="56" t="s">
+      <c r="P14" s="65" t="s">
         <v>379</v>
       </c>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
-      <c r="S14" s="56" t="s">
+      <c r="S14" s="65" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="57"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="46"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="63"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
       <c r="L15" s="1"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
       <c r="Q15" s="42"/>
       <c r="R15" s="42"/>
-      <c r="S15" s="58"/>
+      <c r="S15" s="66"/>
     </row>
     <row r="16" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="57"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="46"/>
       <c r="D16" s="38"/>
       <c r="E16" s="43"/>
@@ -3080,23 +3127,23 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
       <c r="L16" s="39"/>
-      <c r="N16" s="56" t="s">
+      <c r="N16" s="65" t="s">
         <v>376</v>
       </c>
-      <c r="O16" s="56" t="s">
+      <c r="O16" s="65" t="s">
         <v>375</v>
       </c>
-      <c r="P16" s="56" t="s">
+      <c r="P16" s="65" t="s">
         <v>374</v>
       </c>
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
-      <c r="S16" s="56" t="s">
+      <c r="S16" s="65" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="57"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="44"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
@@ -3107,19 +3154,19 @@
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
       <c r="L17" s="39"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
-      <c r="S17" s="58"/>
+      <c r="S17" s="66"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="97" t="s">
         <v>377</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="14"/>
       <c r="F18" s="42"/>
       <c r="G18" s="39"/>
@@ -3128,27 +3175,27 @@
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
       <c r="L18" s="39"/>
-      <c r="N18" s="56" t="s">
+      <c r="N18" s="65" t="s">
         <v>120</v>
       </c>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
-      <c r="Q18" s="56" t="s">
+      <c r="Q18" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="R18" s="56" t="s">
+      <c r="R18" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="S18" s="59" t="s">
+      <c r="S18" s="70" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="58"/>
-      <c r="C19" s="66" t="s">
+      <c r="B19" s="66"/>
+      <c r="C19" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="14"/>
       <c r="F19" s="42"/>
       <c r="G19" s="39"/>
@@ -3157,21 +3204,21 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
       <c r="L19" s="39"/>
-      <c r="N19" s="57"/>
+      <c r="N19" s="71"/>
       <c r="O19" s="41"/>
       <c r="P19" s="41"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="56">
+      <c r="B20" s="65">
         <v>1.2</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="14"/>
       <c r="F20" s="42"/>
       <c r="G20" s="39"/>
@@ -3180,25 +3227,25 @@
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
       <c r="L20" s="39"/>
-      <c r="N20" s="57"/>
+      <c r="N20" s="71"/>
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
-      <c r="Q20" s="56" t="s">
+      <c r="Q20" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="R20" s="56" t="s">
+      <c r="R20" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="S20" s="59" t="s">
+      <c r="S20" s="70" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="57"/>
-      <c r="C21" s="66" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="93" t="s">
         <v>369</v>
       </c>
-      <c r="D21" s="63"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="14"/>
       <c r="F21" s="42"/>
       <c r="G21" s="39"/>
@@ -3207,15 +3254,15 @@
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
       <c r="L21" s="39"/>
-      <c r="N21" s="58"/>
+      <c r="N21" s="66"/>
       <c r="O21" s="41"/>
       <c r="P21" s="41"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
     </row>
     <row r="22" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="57"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="45"/>
       <c r="D22" s="49"/>
       <c r="E22" s="43"/>
@@ -3226,23 +3273,23 @@
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
       <c r="L22" s="39"/>
-      <c r="N22" s="56" t="s">
+      <c r="N22" s="65" t="s">
         <v>365</v>
       </c>
       <c r="O22" s="41"/>
       <c r="P22" s="41"/>
-      <c r="Q22" s="56" t="s">
+      <c r="Q22" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="R22" s="56" t="s">
+      <c r="R22" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="S22" s="59" t="s">
+      <c r="S22" s="70" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="57"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="46"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
@@ -3253,63 +3300,63 @@
       <c r="J23" s="41"/>
       <c r="K23" s="41"/>
       <c r="L23" s="39"/>
-      <c r="N23" s="57"/>
+      <c r="N23" s="71"/>
       <c r="O23" s="41"/>
       <c r="P23" s="41"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="57"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="46"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="60"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
       <c r="L24" s="1"/>
-      <c r="N24" s="57"/>
+      <c r="N24" s="71"/>
       <c r="O24" s="41"/>
       <c r="P24" s="41"/>
-      <c r="Q24" s="56" t="s">
+      <c r="Q24" s="65" t="s">
         <v>361</v>
       </c>
-      <c r="R24" s="56" t="s">
+      <c r="R24" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="S24" s="59" t="s">
+      <c r="S24" s="70" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="57"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="46"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
-      <c r="G25" s="62" t="s">
+      <c r="G25" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="63"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
       <c r="L25" s="1"/>
-      <c r="N25" s="58"/>
+      <c r="N25" s="66"/>
       <c r="O25" s="41"/>
       <c r="P25" s="41"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
     </row>
     <row r="26" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="57"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="46"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
@@ -3320,71 +3367,71 @@
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
       <c r="L26" s="39"/>
-      <c r="N26" s="56" t="s">
+      <c r="N26" s="65" t="s">
         <v>358</v>
       </c>
       <c r="O26" s="41"/>
       <c r="P26" s="41"/>
-      <c r="Q26" s="56" t="s">
+      <c r="Q26" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="R26" s="56" t="s">
+      <c r="R26" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="S26" s="59" t="s">
+      <c r="S26" s="70" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="57"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="46"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="60"/>
+      <c r="H27" s="74"/>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
       <c r="L27" s="1"/>
-      <c r="N27" s="57"/>
+      <c r="N27" s="71"/>
       <c r="O27" s="41"/>
       <c r="P27" s="41"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
     </row>
     <row r="28" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="57"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="46"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="63"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
       <c r="K28" s="42"/>
       <c r="L28" s="1"/>
-      <c r="N28" s="57"/>
+      <c r="N28" s="71"/>
       <c r="O28" s="41"/>
       <c r="P28" s="41"/>
-      <c r="Q28" s="56" t="s">
+      <c r="Q28" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="R28" s="56" t="s">
+      <c r="R28" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="S28" s="59" t="s">
+      <c r="S28" s="70" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="29" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="57"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="46"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
@@ -3395,121 +3442,121 @@
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="39"/>
-      <c r="N29" s="58"/>
+      <c r="N29" s="66"/>
       <c r="O29" s="43"/>
       <c r="P29" s="43"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="46"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="H30" s="60"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
       <c r="K30" s="42"/>
       <c r="L30" s="1"/>
-      <c r="N30" s="56" t="s">
+      <c r="N30" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="O30" s="56" t="s">
+      <c r="O30" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="P30" s="56" t="s">
+      <c r="P30" s="65" t="s">
         <v>349</v>
       </c>
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
-      <c r="S30" s="56" t="s">
+      <c r="S30" s="65" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="58"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="44"/>
       <c r="D31" s="43"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="63"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="14"/>
       <c r="J31" s="42"/>
       <c r="K31" s="42"/>
       <c r="L31" s="1"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
-      <c r="S31" s="58"/>
+      <c r="S31" s="66"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="56">
+      <c r="B32" s="65">
         <v>2.1</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="60"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="H32" s="60"/>
+      <c r="H32" s="74"/>
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
       <c r="L32" s="1"/>
-      <c r="N32" s="56" t="s">
+      <c r="N32" s="65" t="s">
         <v>111</v>
       </c>
       <c r="O32" s="48"/>
       <c r="P32" s="48"/>
-      <c r="Q32" s="56" t="s">
+      <c r="Q32" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="R32" s="56" t="s">
+      <c r="R32" s="65" t="s">
         <v>346</v>
       </c>
-      <c r="S32" s="59" t="s">
+      <c r="S32" s="70" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="33" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="57"/>
-      <c r="C33" s="62" t="s">
+      <c r="B33" s="71"/>
+      <c r="C33" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="63"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="63"/>
+      <c r="H33" s="67"/>
       <c r="I33" s="42"/>
       <c r="J33" s="42"/>
       <c r="K33" s="42"/>
       <c r="L33" s="1"/>
-      <c r="N33" s="57"/>
+      <c r="N33" s="71"/>
       <c r="O33" s="41"/>
       <c r="P33" s="41"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
     </row>
     <row r="34" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="57"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="47"/>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
@@ -3520,21 +3567,21 @@
       <c r="J34" s="41"/>
       <c r="K34" s="41"/>
       <c r="L34" s="39"/>
-      <c r="N34" s="57"/>
+      <c r="N34" s="71"/>
       <c r="O34" s="41"/>
       <c r="P34" s="41"/>
-      <c r="Q34" s="56" t="s">
+      <c r="Q34" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="R34" s="56" t="s">
+      <c r="R34" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="S34" s="59" t="s">
+      <c r="S34" s="70" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="35" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="57"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="46"/>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
@@ -3545,221 +3592,221 @@
       <c r="J35" s="43"/>
       <c r="K35" s="41"/>
       <c r="L35" s="39"/>
-      <c r="N35" s="57"/>
+      <c r="N35" s="71"/>
       <c r="O35" s="40"/>
       <c r="P35" s="39"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B36" s="57"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="46"/>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
       <c r="G36" s="39"/>
       <c r="H36" s="41"/>
-      <c r="I36" s="61" t="s">
+      <c r="I36" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="J36" s="60"/>
+      <c r="J36" s="74"/>
       <c r="K36" s="42"/>
       <c r="L36" s="1"/>
-      <c r="N36" s="57"/>
+      <c r="N36" s="71"/>
       <c r="O36" s="41"/>
       <c r="P36" s="41"/>
-      <c r="Q36" s="56" t="s">
+      <c r="Q36" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="R36" s="56" t="s">
+      <c r="R36" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="S36" s="106" t="s">
+      <c r="S36" s="68" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="58"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="44"/>
       <c r="D37" s="43"/>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
       <c r="G37" s="39"/>
       <c r="H37" s="41"/>
-      <c r="I37" s="62" t="s">
+      <c r="I37" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="63"/>
+      <c r="J37" s="67"/>
       <c r="K37" s="42"/>
       <c r="L37" s="1"/>
-      <c r="N37" s="62"/>
+      <c r="N37" s="72"/>
       <c r="O37" s="40"/>
       <c r="P37" s="39"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="107"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="69"/>
     </row>
     <row r="38" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="56">
+      <c r="B38" s="65">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="60"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="6"/>
       <c r="F38" s="5"/>
       <c r="G38" s="37"/>
       <c r="H38" s="39"/>
-      <c r="I38" s="67" t="s">
+      <c r="I38" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="J38" s="60"/>
+      <c r="J38" s="74"/>
       <c r="K38" s="42"/>
       <c r="L38" s="1"/>
-      <c r="N38" s="61" t="s">
+      <c r="N38" s="73" t="s">
         <v>106</v>
       </c>
       <c r="O38" s="40"/>
       <c r="P38" s="39"/>
-      <c r="Q38" s="60" t="s">
+      <c r="Q38" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="R38" s="56" t="s">
+      <c r="R38" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="S38" s="59" t="s">
+      <c r="S38" s="70" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="39" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="58"/>
-      <c r="C39" s="62" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="14"/>
       <c r="F39" s="42"/>
       <c r="G39" s="37"/>
       <c r="H39" s="39"/>
-      <c r="I39" s="62" t="s">
+      <c r="I39" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="J39" s="63"/>
+      <c r="J39" s="67"/>
       <c r="K39" s="42"/>
       <c r="L39" s="1"/>
-      <c r="N39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
+      <c r="N39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
     </row>
     <row r="40" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="56">
+      <c r="B40" s="65">
         <v>3.1</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
       <c r="F40" s="41"/>
-      <c r="G40" s="61" t="s">
+      <c r="G40" s="73" t="s">
         <v>338</v>
       </c>
-      <c r="H40" s="60"/>
+      <c r="H40" s="74"/>
       <c r="I40" s="41"/>
       <c r="J40" s="49"/>
       <c r="K40" s="43"/>
       <c r="L40" s="39"/>
-      <c r="N40" s="61" t="s">
+      <c r="N40" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="O40" s="56" t="s">
+      <c r="O40" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="P40" s="56" t="s">
+      <c r="P40" s="65" t="s">
         <v>333</v>
       </c>
       <c r="Q40" s="42"/>
       <c r="R40" s="42"/>
-      <c r="S40" s="56" t="s">
+      <c r="S40" s="65" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="41" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="57"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="46"/>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
-      <c r="G41" s="62" t="s">
+      <c r="G41" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="63"/>
+      <c r="H41" s="67"/>
       <c r="I41" s="44"/>
       <c r="J41" s="41"/>
       <c r="K41" s="50"/>
       <c r="L41" s="39"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
       <c r="Q41" s="42"/>
       <c r="R41" s="42"/>
-      <c r="S41" s="58"/>
+      <c r="S41" s="66"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="46"/>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
       <c r="G42" s="45"/>
       <c r="H42" s="41"/>
-      <c r="I42" s="61" t="s">
+      <c r="I42" s="73" t="s">
         <v>335</v>
       </c>
-      <c r="J42" s="60"/>
-      <c r="K42" s="61" t="s">
+      <c r="J42" s="74"/>
+      <c r="K42" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="L42" s="60"/>
-      <c r="N42" s="61" t="s">
+      <c r="L42" s="74"/>
+      <c r="N42" s="73" t="s">
         <v>102</v>
       </c>
       <c r="O42" s="40"/>
       <c r="P42" s="39"/>
-      <c r="Q42" s="60" t="s">
+      <c r="Q42" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="R42" s="56" t="s">
+      <c r="R42" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="S42" s="59" t="s">
+      <c r="S42" s="70" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="57"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="46"/>
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
       <c r="G43" s="39"/>
       <c r="H43" s="41"/>
-      <c r="I43" s="62" t="s">
+      <c r="I43" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="J43" s="63"/>
-      <c r="K43" s="62" t="s">
+      <c r="J43" s="67"/>
+      <c r="K43" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="L43" s="63"/>
-      <c r="N43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
+      <c r="L43" s="67"/>
+      <c r="N43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="66"/>
     </row>
     <row r="44" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="57"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="46"/>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
@@ -3770,23 +3817,23 @@
       <c r="J44" s="43"/>
       <c r="K44" s="50"/>
       <c r="L44" s="39"/>
-      <c r="N44" s="56" t="s">
+      <c r="N44" s="65" t="s">
         <v>91</v>
       </c>
       <c r="O44" s="41"/>
       <c r="P44" s="41"/>
-      <c r="Q44" s="56" t="s">
+      <c r="Q44" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="R44" s="56" t="s">
+      <c r="R44" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="S44" s="59" t="s">
+      <c r="S44" s="70" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="45" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="57"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="46"/>
       <c r="D45" s="41"/>
       <c r="E45" s="37"/>
@@ -3797,275 +3844,275 @@
       <c r="J45" s="41"/>
       <c r="K45" s="45"/>
       <c r="L45" s="39"/>
-      <c r="N45" s="57"/>
+      <c r="N45" s="71"/>
       <c r="O45" s="41"/>
       <c r="P45" s="41"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B46" s="57"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="46"/>
       <c r="D46" s="41"/>
-      <c r="E46" s="61" t="s">
+      <c r="E46" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="60"/>
+      <c r="F46" s="74"/>
       <c r="G46" s="39"/>
       <c r="H46" s="41"/>
       <c r="I46" s="39"/>
       <c r="J46" s="41"/>
       <c r="K46" s="39"/>
       <c r="L46" s="39"/>
-      <c r="N46" s="57"/>
+      <c r="N46" s="71"/>
       <c r="O46" s="41"/>
       <c r="P46" s="41"/>
-      <c r="Q46" s="56" t="s">
+      <c r="Q46" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="R46" s="56" t="s">
+      <c r="R46" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="S46" s="59" t="s">
+      <c r="S46" s="70" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="47" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="58"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="46"/>
       <c r="D47" s="41"/>
-      <c r="E47" s="62" t="s">
+      <c r="E47" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="67"/>
       <c r="G47" s="39"/>
       <c r="H47" s="41"/>
       <c r="I47" s="37"/>
       <c r="J47" s="41"/>
       <c r="K47" s="37"/>
       <c r="L47" s="39"/>
-      <c r="N47" s="58"/>
+      <c r="N47" s="66"/>
       <c r="O47" s="41"/>
       <c r="P47" s="41"/>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="58"/>
-      <c r="S47" s="58"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="66"/>
+      <c r="S47" s="66"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B48" s="56">
+      <c r="B48" s="65">
         <v>3.2</v>
       </c>
       <c r="C48" s="46"/>
       <c r="D48" s="41"/>
-      <c r="E48" s="61" t="s">
+      <c r="E48" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="60"/>
+      <c r="F48" s="74"/>
       <c r="G48" s="39"/>
       <c r="H48" s="41"/>
-      <c r="I48" s="61" t="s">
+      <c r="I48" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="60"/>
-      <c r="K48" s="61" t="s">
+      <c r="J48" s="74"/>
+      <c r="K48" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="L48" s="60"/>
-      <c r="N48" s="61" t="s">
+      <c r="L48" s="74"/>
+      <c r="N48" s="73" t="s">
         <v>89</v>
       </c>
       <c r="O48" s="40"/>
       <c r="P48" s="39"/>
-      <c r="Q48" s="60" t="s">
+      <c r="Q48" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="R48" s="56" t="s">
+      <c r="R48" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="S48" s="59" t="s">
+      <c r="S48" s="70" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="58"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="44"/>
       <c r="D49" s="41"/>
-      <c r="E49" s="62" t="s">
+      <c r="E49" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="F49" s="63"/>
+      <c r="F49" s="67"/>
       <c r="G49" s="39"/>
       <c r="H49" s="41"/>
-      <c r="I49" s="62" t="s">
+      <c r="I49" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="J49" s="63"/>
-      <c r="K49" s="62" t="s">
+      <c r="J49" s="67"/>
+      <c r="K49" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="N49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="58"/>
+      <c r="L49" s="67"/>
+      <c r="N49" s="66"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="66"/>
+      <c r="S49" s="66"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B50" s="56">
+      <c r="B50" s="65">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="60"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="47"/>
       <c r="F50" s="41"/>
       <c r="G50" s="39"/>
       <c r="H50" s="41"/>
-      <c r="I50" s="61" t="s">
+      <c r="I50" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="60"/>
-      <c r="N50" s="61" t="s">
+      <c r="J50" s="97"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="74"/>
+      <c r="N50" s="73" t="s">
         <v>90</v>
       </c>
       <c r="O50" s="40"/>
       <c r="P50" s="39"/>
-      <c r="Q50" s="60" t="s">
+      <c r="Q50" s="74" t="s">
         <v>321</v>
       </c>
-      <c r="R50" s="56" t="s">
+      <c r="R50" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="S50" s="59" t="s">
+      <c r="S50" s="70" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="51" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="58"/>
-      <c r="C51" s="62" t="s">
+      <c r="B51" s="66"/>
+      <c r="C51" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="63"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="44"/>
       <c r="F51" s="41"/>
       <c r="G51" s="37"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="62" t="s">
+      <c r="I51" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="63"/>
-      <c r="N51" s="58"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="58"/>
-      <c r="S51" s="58"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="67"/>
+      <c r="N51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B52" s="56">
+      <c r="B52" s="65">
         <v>4.2</v>
       </c>
       <c r="C52" s="41"/>
       <c r="D52" s="41"/>
-      <c r="E52" s="61" t="s">
+      <c r="E52" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="60"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="74"/>
       <c r="I52" s="41"/>
       <c r="J52" s="45"/>
       <c r="K52" s="41"/>
       <c r="L52" s="39"/>
-      <c r="N52" s="56" t="s">
+      <c r="N52" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="O52" s="64" t="s">
+      <c r="O52" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="P52" s="56" t="s">
+      <c r="P52" s="65" t="s">
         <v>317</v>
       </c>
       <c r="Q52" s="42"/>
       <c r="R52" s="42"/>
-      <c r="S52" s="56" t="s">
+      <c r="S52" s="65" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="57"/>
+      <c r="B53" s="71"/>
       <c r="C53" s="41"/>
       <c r="D53" s="41"/>
-      <c r="E53" s="62" t="s">
+      <c r="E53" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="63"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="67"/>
       <c r="I53" s="41"/>
       <c r="J53" s="39"/>
       <c r="K53" s="41"/>
       <c r="L53" s="39"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="58"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="106"/>
+      <c r="P53" s="66"/>
       <c r="Q53" s="42"/>
       <c r="R53" s="42"/>
-      <c r="S53" s="58"/>
+      <c r="S53" s="66"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B54" s="57"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="41"/>
       <c r="D54" s="41"/>
-      <c r="E54" s="61" t="s">
+      <c r="E54" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="60"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="74"/>
       <c r="I54" s="41"/>
       <c r="J54" s="39"/>
       <c r="K54" s="41"/>
       <c r="L54" s="39"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="64" t="s">
+      <c r="N54" s="71"/>
+      <c r="O54" s="105" t="s">
         <v>273</v>
       </c>
-      <c r="P54" s="56" t="s">
+      <c r="P54" s="65" t="s">
         <v>316</v>
       </c>
       <c r="Q54" s="42"/>
       <c r="R54" s="42"/>
-      <c r="S54" s="56" t="s">
+      <c r="S54" s="65" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="55" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="58"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="41"/>
       <c r="D55" s="41"/>
-      <c r="E55" s="62" t="s">
+      <c r="E55" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="63"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="67"/>
       <c r="I55" s="41"/>
       <c r="J55" s="39"/>
       <c r="K55" s="41"/>
       <c r="L55" s="39"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="65"/>
-      <c r="P55" s="58"/>
+      <c r="N55" s="66"/>
+      <c r="O55" s="106"/>
+      <c r="P55" s="66"/>
       <c r="Q55" s="42"/>
       <c r="R55" s="42"/>
-      <c r="S55" s="58"/>
+      <c r="S55" s="66"/>
     </row>
     <row r="56" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="56">
+      <c r="B56" s="65">
         <v>5.0999999999999996</v>
       </c>
       <c r="C56" s="41"/>
@@ -4078,23 +4125,23 @@
       <c r="J56" s="37"/>
       <c r="K56" s="41"/>
       <c r="L56" s="39"/>
-      <c r="N56" s="56" t="s">
+      <c r="N56" s="65" t="s">
         <v>80</v>
       </c>
       <c r="O56" s="40"/>
       <c r="P56" s="39"/>
-      <c r="Q56" s="60" t="s">
+      <c r="Q56" s="74" t="s">
         <v>314</v>
       </c>
-      <c r="R56" s="56" t="s">
+      <c r="R56" s="65" t="s">
         <v>313</v>
       </c>
-      <c r="S56" s="59" t="s">
+      <c r="S56" s="70" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="57" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="57"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="39"/>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
@@ -4105,63 +4152,63 @@
       <c r="J57" s="50"/>
       <c r="K57" s="41"/>
       <c r="L57" s="39"/>
-      <c r="N57" s="57"/>
-      <c r="Q57" s="58"/>
-      <c r="R57" s="58"/>
-      <c r="S57" s="58"/>
+      <c r="N57" s="71"/>
+      <c r="Q57" s="66"/>
+      <c r="R57" s="66"/>
+      <c r="S57" s="66"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B58" s="57"/>
-      <c r="C58" s="67" t="s">
+      <c r="B58" s="71"/>
+      <c r="C58" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="60"/>
+      <c r="D58" s="74"/>
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
-      <c r="G58" s="61" t="s">
+      <c r="G58" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="60"/>
-      <c r="N58" s="57"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="97"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="74"/>
+      <c r="N58" s="71"/>
       <c r="O58" s="40"/>
       <c r="P58" s="39"/>
-      <c r="Q58" s="60" t="s">
+      <c r="Q58" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="R58" s="56" t="s">
+      <c r="R58" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="S58" s="59" t="s">
+      <c r="S58" s="70" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="59" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="57"/>
-      <c r="C59" s="66" t="s">
+      <c r="B59" s="71"/>
+      <c r="C59" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="63"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="41"/>
       <c r="F59" s="41"/>
-      <c r="G59" s="62" t="s">
+      <c r="G59" s="72" t="s">
         <v>311</v>
       </c>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="63"/>
-      <c r="N59" s="58"/>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="58"/>
-      <c r="S59" s="58"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="67"/>
+      <c r="N59" s="66"/>
+      <c r="Q59" s="66"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="66"/>
     </row>
     <row r="60" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="57"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="41"/>
       <c r="D60" s="49"/>
       <c r="E60" s="43"/>
@@ -4172,23 +4219,23 @@
       <c r="J60" s="41"/>
       <c r="K60" s="41"/>
       <c r="L60" s="39"/>
-      <c r="N60" s="56" t="s">
+      <c r="N60" s="65" t="s">
         <v>307</v>
       </c>
       <c r="O60" s="40"/>
       <c r="P60" s="39"/>
-      <c r="Q60" s="60" t="s">
+      <c r="Q60" s="74" t="s">
         <v>306</v>
       </c>
-      <c r="R60" s="56" t="s">
+      <c r="R60" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="S60" s="59" t="s">
+      <c r="S60" s="70" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="61" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="57"/>
+      <c r="B61" s="71"/>
       <c r="C61" s="41"/>
       <c r="D61" s="41"/>
       <c r="E61" s="45"/>
@@ -4199,59 +4246,59 @@
       <c r="J61" s="41"/>
       <c r="K61" s="41"/>
       <c r="L61" s="39"/>
-      <c r="N61" s="57"/>
-      <c r="Q61" s="58"/>
-      <c r="R61" s="58"/>
-      <c r="S61" s="58"/>
+      <c r="N61" s="71"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="66"/>
+      <c r="S61" s="66"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B62" s="57"/>
+      <c r="B62" s="71"/>
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
-      <c r="E62" s="61" t="s">
+      <c r="E62" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="60"/>
+      <c r="F62" s="74"/>
       <c r="G62" s="39"/>
       <c r="H62" s="41"/>
       <c r="I62" s="41"/>
       <c r="J62" s="41"/>
       <c r="K62" s="41"/>
       <c r="L62" s="39"/>
-      <c r="N62" s="57"/>
+      <c r="N62" s="71"/>
       <c r="O62" s="40"/>
       <c r="P62" s="39"/>
-      <c r="Q62" s="60" t="s">
+      <c r="Q62" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="R62" s="56" t="s">
+      <c r="R62" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="S62" s="59" t="s">
+      <c r="S62" s="70" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="63" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="57"/>
+      <c r="B63" s="71"/>
       <c r="C63" s="41"/>
       <c r="D63" s="41"/>
-      <c r="E63" s="62" t="s">
+      <c r="E63" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="63"/>
+      <c r="F63" s="67"/>
       <c r="G63" s="39"/>
       <c r="H63" s="41"/>
       <c r="I63" s="41"/>
       <c r="J63" s="41"/>
       <c r="K63" s="41"/>
       <c r="L63" s="39"/>
-      <c r="N63" s="57"/>
-      <c r="Q63" s="58"/>
-      <c r="R63" s="58"/>
-      <c r="S63" s="58"/>
+      <c r="N63" s="71"/>
+      <c r="Q63" s="66"/>
+      <c r="R63" s="66"/>
+      <c r="S63" s="66"/>
     </row>
     <row r="64" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="57"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="41"/>
       <c r="D64" s="41"/>
       <c r="E64" s="45"/>
@@ -4262,69 +4309,69 @@
       <c r="J64" s="41"/>
       <c r="K64" s="41"/>
       <c r="L64" s="39"/>
-      <c r="N64" s="57"/>
+      <c r="N64" s="71"/>
       <c r="O64" s="40"/>
       <c r="P64" s="39"/>
-      <c r="Q64" s="60" t="s">
+      <c r="Q64" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="R64" s="56" t="s">
+      <c r="R64" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="S64" s="59" t="s">
+      <c r="S64" s="70" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="65" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="57"/>
+      <c r="B65" s="71"/>
       <c r="C65" s="41"/>
       <c r="D65" s="41"/>
-      <c r="E65" s="61" t="s">
+      <c r="E65" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="60"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="74"/>
       <c r="I65" s="38"/>
       <c r="J65" s="41"/>
       <c r="K65" s="41"/>
       <c r="L65" s="39"/>
-      <c r="N65" s="58"/>
-      <c r="Q65" s="58"/>
-      <c r="R65" s="58"/>
-      <c r="S65" s="58"/>
+      <c r="N65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
     </row>
     <row r="66" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="58"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="41"/>
       <c r="D66" s="41"/>
-      <c r="E66" s="62" t="s">
+      <c r="E66" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="63"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="67"/>
       <c r="I66" s="47"/>
       <c r="J66" s="41"/>
       <c r="K66" s="41"/>
       <c r="L66" s="39"/>
-      <c r="N66" s="56" t="s">
+      <c r="N66" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="O66" s="64" t="s">
+      <c r="O66" s="105" t="s">
         <v>296</v>
       </c>
-      <c r="P66" s="56" t="s">
+      <c r="P66" s="65" t="s">
         <v>295</v>
       </c>
       <c r="Q66" s="42"/>
       <c r="R66" s="42"/>
-      <c r="S66" s="56" t="s">
+      <c r="S66" s="65" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="67" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="56">
+      <c r="B67" s="65">
         <v>5.2</v>
       </c>
       <c r="C67" s="41"/>
@@ -4333,98 +4380,98 @@
       <c r="F67" s="48"/>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
-      <c r="I67" s="61" t="s">
+      <c r="I67" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="J67" s="60"/>
+      <c r="J67" s="74"/>
       <c r="K67" s="38"/>
       <c r="L67" s="39"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="65"/>
-      <c r="P67" s="58"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="106"/>
+      <c r="P67" s="66"/>
       <c r="Q67" s="42"/>
       <c r="R67" s="42"/>
-      <c r="S67" s="58"/>
+      <c r="S67" s="66"/>
     </row>
     <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="57"/>
+      <c r="B68" s="71"/>
       <c r="C68" s="41"/>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
-      <c r="I68" s="62" t="s">
+      <c r="I68" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="J68" s="63"/>
+      <c r="J68" s="67"/>
       <c r="K68" s="47"/>
       <c r="L68" s="39"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="64" t="s">
+      <c r="N68" s="71"/>
+      <c r="O68" s="105" t="s">
         <v>292</v>
       </c>
-      <c r="P68" s="56" t="s">
+      <c r="P68" s="65" t="s">
         <v>291</v>
       </c>
       <c r="Q68" s="42"/>
       <c r="R68" s="42"/>
-      <c r="S68" s="56" t="s">
+      <c r="S68" s="65" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="57"/>
+      <c r="B69" s="71"/>
       <c r="C69" s="41"/>
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
-      <c r="I69" s="61" t="s">
+      <c r="I69" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J69" s="60"/>
+      <c r="J69" s="74"/>
       <c r="K69" s="46"/>
       <c r="L69" s="39"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="65"/>
-      <c r="P69" s="58"/>
+      <c r="N69" s="66"/>
+      <c r="O69" s="106"/>
+      <c r="P69" s="66"/>
       <c r="Q69" s="42"/>
       <c r="R69" s="42"/>
-      <c r="S69" s="58"/>
+      <c r="S69" s="66"/>
     </row>
     <row r="70" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="58"/>
+      <c r="B70" s="66"/>
       <c r="C70" s="41"/>
       <c r="D70" s="41"/>
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
-      <c r="I70" s="62" t="s">
+      <c r="I70" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="J70" s="63"/>
+      <c r="J70" s="67"/>
       <c r="K70" s="44"/>
       <c r="L70" s="39"/>
-      <c r="N70" s="61" t="s">
+      <c r="N70" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="O70" s="56" t="s">
+      <c r="O70" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="P70" s="56" t="s">
+      <c r="P70" s="65" t="s">
         <v>288</v>
       </c>
       <c r="Q70" s="42"/>
       <c r="R70" s="42"/>
-      <c r="S70" s="59" t="s">
+      <c r="S70" s="70" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="71" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="56">
+      <c r="B71" s="65">
         <v>6.1</v>
       </c>
       <c r="C71" s="41"/>
@@ -4435,19 +4482,19 @@
       <c r="H71" s="41"/>
       <c r="I71" s="45"/>
       <c r="J71" s="41"/>
-      <c r="K71" s="61" t="s">
+      <c r="K71" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="L71" s="60"/>
-      <c r="N71" s="58"/>
-      <c r="O71" s="58"/>
-      <c r="P71" s="58"/>
+      <c r="L71" s="74"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="66"/>
       <c r="Q71" s="42"/>
       <c r="R71" s="42"/>
-      <c r="S71" s="58"/>
+      <c r="S71" s="66"/>
     </row>
     <row r="72" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="57"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="41"/>
       <c r="D72" s="41"/>
       <c r="E72" s="41"/>
@@ -4456,27 +4503,27 @@
       <c r="H72" s="41"/>
       <c r="I72" s="39"/>
       <c r="J72" s="41"/>
-      <c r="K72" s="62" t="s">
+      <c r="K72" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="L72" s="63"/>
-      <c r="N72" s="56" t="s">
+      <c r="L72" s="67"/>
+      <c r="N72" s="65" t="s">
         <v>67</v>
       </c>
       <c r="O72" s="40"/>
       <c r="P72" s="39"/>
-      <c r="Q72" s="60" t="s">
+      <c r="Q72" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="R72" s="56" t="s">
+      <c r="R72" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="S72" s="59" t="s">
+      <c r="S72" s="70" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="73" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="57"/>
+      <c r="B73" s="71"/>
       <c r="C73" s="41"/>
       <c r="D73" s="41"/>
       <c r="E73" s="41"/>
@@ -4485,17 +4532,17 @@
       <c r="H73" s="41"/>
       <c r="I73" s="39"/>
       <c r="J73" s="44"/>
-      <c r="K73" s="61" t="s">
+      <c r="K73" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="L73" s="60"/>
-      <c r="N73" s="57"/>
-      <c r="Q73" s="58"/>
-      <c r="R73" s="58"/>
-      <c r="S73" s="58"/>
+      <c r="L73" s="74"/>
+      <c r="N73" s="71"/>
+      <c r="Q73" s="66"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="66"/>
     </row>
     <row r="74" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="58"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="41"/>
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
@@ -4504,25 +4551,25 @@
       <c r="H74" s="41"/>
       <c r="I74" s="41"/>
       <c r="J74" s="41"/>
-      <c r="K74" s="62" t="s">
+      <c r="K74" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="L74" s="63"/>
-      <c r="N74" s="57"/>
+      <c r="L74" s="67"/>
+      <c r="N74" s="71"/>
       <c r="O74" s="40"/>
       <c r="P74" s="39"/>
-      <c r="Q74" s="60" t="s">
+      <c r="Q74" s="74" t="s">
         <v>283</v>
       </c>
-      <c r="R74" s="56" t="s">
+      <c r="R74" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="S74" s="59" t="s">
+      <c r="S74" s="70" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="75" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="56">
+      <c r="B75" s="65">
         <v>6.2</v>
       </c>
       <c r="C75" s="41"/>
@@ -4533,17 +4580,17 @@
       <c r="H75" s="41"/>
       <c r="I75" s="41"/>
       <c r="J75" s="41"/>
-      <c r="K75" s="61" t="s">
+      <c r="K75" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L75" s="60"/>
-      <c r="N75" s="58"/>
-      <c r="Q75" s="58"/>
-      <c r="R75" s="58"/>
-      <c r="S75" s="58"/>
+      <c r="L75" s="74"/>
+      <c r="N75" s="66"/>
+      <c r="Q75" s="66"/>
+      <c r="R75" s="66"/>
+      <c r="S75" s="66"/>
     </row>
     <row r="76" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="57"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="41"/>
       <c r="D76" s="41"/>
       <c r="E76" s="41"/>
@@ -4552,27 +4599,27 @@
       <c r="H76" s="41"/>
       <c r="I76" s="41"/>
       <c r="J76" s="41"/>
-      <c r="K76" s="62" t="s">
+      <c r="K76" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="L76" s="63"/>
-      <c r="N76" s="56" t="s">
+      <c r="L76" s="67"/>
+      <c r="N76" s="65" t="s">
         <v>57</v>
       </c>
       <c r="O76" s="41"/>
       <c r="P76" s="41"/>
-      <c r="Q76" s="56" t="s">
+      <c r="Q76" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="R76" s="56" t="s">
+      <c r="R76" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="S76" s="59" t="s">
+      <c r="S76" s="70" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="77" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="57"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="41"/>
       <c r="D77" s="41"/>
       <c r="E77" s="41"/>
@@ -4581,19 +4628,19 @@
       <c r="H77" s="41"/>
       <c r="I77" s="41"/>
       <c r="J77" s="41"/>
-      <c r="K77" s="61" t="s">
+      <c r="K77" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="L77" s="60"/>
-      <c r="N77" s="57"/>
+      <c r="L77" s="74"/>
+      <c r="N77" s="71"/>
       <c r="O77" s="41"/>
       <c r="P77" s="41"/>
-      <c r="Q77" s="58"/>
-      <c r="R77" s="58"/>
-      <c r="S77" s="58"/>
+      <c r="Q77" s="66"/>
+      <c r="R77" s="66"/>
+      <c r="S77" s="66"/>
     </row>
     <row r="78" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="58"/>
+      <c r="B78" s="66"/>
       <c r="C78" s="38"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
@@ -4602,541 +4649,824 @@
       <c r="H78" s="43"/>
       <c r="I78" s="43"/>
       <c r="J78" s="37"/>
-      <c r="K78" s="62" t="s">
+      <c r="K78" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="L78" s="63"/>
-      <c r="N78" s="57"/>
+      <c r="L78" s="67"/>
+      <c r="N78" s="71"/>
       <c r="O78" s="41"/>
       <c r="P78" s="41"/>
-      <c r="Q78" s="56" t="s">
+      <c r="Q78" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="R78" s="56" t="s">
+      <c r="R78" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="S78" s="59" t="s">
+      <c r="S78" s="70" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N79" s="58"/>
+      <c r="N79" s="66"/>
       <c r="O79" s="41"/>
       <c r="P79" s="41"/>
-      <c r="Q79" s="58"/>
-      <c r="R79" s="58"/>
-      <c r="S79" s="58"/>
+      <c r="Q79" s="66"/>
+      <c r="R79" s="66"/>
+      <c r="S79" s="66"/>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="N80" s="56" t="s">
+      <c r="N80" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="O80" s="68" t="s">
+      <c r="O80" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="P80" s="56" t="s">
+      <c r="P80" s="65" t="s">
         <v>272</v>
       </c>
       <c r="Q80" s="42"/>
       <c r="R80" s="42"/>
-      <c r="S80" s="59" t="s">
+      <c r="S80" s="70" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="81" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N81" s="57"/>
-      <c r="O81" s="69"/>
-      <c r="P81" s="58"/>
+      <c r="N81" s="71"/>
+      <c r="O81" s="108"/>
+      <c r="P81" s="66"/>
       <c r="Q81" s="42"/>
       <c r="R81" s="42"/>
-      <c r="S81" s="58"/>
+      <c r="S81" s="66"/>
     </row>
     <row r="82" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N82" s="57"/>
-      <c r="Q82" s="56" t="s">
+      <c r="N82" s="71"/>
+      <c r="Q82" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="R82" s="56" t="s">
+      <c r="R82" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="S82" s="59" t="s">
+      <c r="S82" s="70" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="83" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N83" s="57"/>
-      <c r="Q83" s="58"/>
-      <c r="R83" s="58"/>
-      <c r="S83" s="58"/>
+      <c r="N83" s="71"/>
+      <c r="Q83" s="66"/>
+      <c r="R83" s="66"/>
+      <c r="S83" s="66"/>
     </row>
     <row r="84" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N84" s="57"/>
-      <c r="Q84" s="56" t="s">
+      <c r="N84" s="71"/>
+      <c r="Q84" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="R84" s="56" t="s">
+      <c r="R84" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="S84" s="59" t="s">
+      <c r="S84" s="70" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="85" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N85" s="58"/>
-      <c r="Q85" s="58"/>
-      <c r="R85" s="58"/>
-      <c r="S85" s="58"/>
+      <c r="N85" s="66"/>
+      <c r="Q85" s="66"/>
+      <c r="R85" s="66"/>
+      <c r="S85" s="66"/>
     </row>
     <row r="86" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N86" s="56" t="s">
+      <c r="N86" s="65" t="s">
         <v>45</v>
       </c>
       <c r="O86" s="40"/>
       <c r="P86" s="39"/>
-      <c r="Q86" s="60" t="s">
+      <c r="Q86" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="R86" s="56" t="s">
+      <c r="R86" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="S86" s="59" t="s">
+      <c r="S86" s="70" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="87" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N87" s="57"/>
-      <c r="Q87" s="58"/>
-      <c r="R87" s="58"/>
-      <c r="S87" s="58"/>
+      <c r="N87" s="71"/>
+      <c r="Q87" s="66"/>
+      <c r="R87" s="66"/>
+      <c r="S87" s="66"/>
     </row>
     <row r="88" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N88" s="57"/>
+      <c r="N88" s="71"/>
       <c r="O88" s="40"/>
       <c r="P88" s="39"/>
-      <c r="Q88" s="60" t="s">
+      <c r="Q88" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="R88" s="56" t="s">
+      <c r="R88" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="S88" s="59" t="s">
+      <c r="S88" s="70" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="89" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N89" s="58"/>
-      <c r="Q89" s="58"/>
-      <c r="R89" s="58"/>
-      <c r="S89" s="58"/>
+      <c r="N89" s="66"/>
+      <c r="Q89" s="66"/>
+      <c r="R89" s="66"/>
+      <c r="S89" s="66"/>
     </row>
     <row r="90" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N90" s="56" t="s">
+      <c r="N90" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="O90" s="64" t="s">
+      <c r="O90" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="P90" s="56" t="s">
+      <c r="P90" s="65" t="s">
         <v>258</v>
       </c>
       <c r="Q90" s="42"/>
       <c r="R90" s="42"/>
-      <c r="S90" s="59" t="s">
+      <c r="S90" s="70" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="91" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N91" s="57"/>
-      <c r="O91" s="65"/>
-      <c r="P91" s="58"/>
+      <c r="N91" s="71"/>
+      <c r="O91" s="106"/>
+      <c r="P91" s="66"/>
       <c r="Q91" s="42"/>
       <c r="R91" s="42"/>
-      <c r="S91" s="58"/>
+      <c r="S91" s="66"/>
     </row>
     <row r="92" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N92" s="57"/>
-      <c r="O92" s="64" t="s">
+      <c r="N92" s="71"/>
+      <c r="O92" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="P92" s="56" t="s">
+      <c r="P92" s="65" t="s">
         <v>255</v>
       </c>
       <c r="Q92" s="42"/>
       <c r="R92" s="42"/>
-      <c r="S92" s="59" t="s">
+      <c r="S92" s="70" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="93" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N93" s="58"/>
-      <c r="O93" s="65"/>
-      <c r="P93" s="58"/>
+      <c r="N93" s="66"/>
+      <c r="O93" s="106"/>
+      <c r="P93" s="66"/>
       <c r="Q93" s="42"/>
       <c r="R93" s="42"/>
-      <c r="S93" s="58"/>
+      <c r="S93" s="66"/>
     </row>
     <row r="94" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N94" s="56" t="s">
+      <c r="N94" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="O94" s="64" t="s">
+      <c r="O94" s="105" t="s">
         <v>252</v>
       </c>
-      <c r="P94" s="56" t="s">
+      <c r="P94" s="65" t="s">
         <v>253</v>
       </c>
       <c r="Q94" s="42"/>
       <c r="R94" s="42"/>
-      <c r="S94" s="59" t="s">
+      <c r="S94" s="70" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="95" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N95" s="57"/>
-      <c r="O95" s="65"/>
-      <c r="P95" s="58"/>
+      <c r="N95" s="71"/>
+      <c r="O95" s="106"/>
+      <c r="P95" s="66"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="42"/>
-      <c r="S95" s="58"/>
+      <c r="S95" s="66"/>
     </row>
     <row r="96" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N96" s="57"/>
-      <c r="O96" s="64" t="s">
+      <c r="N96" s="71"/>
+      <c r="O96" s="105" t="s">
         <v>250</v>
       </c>
-      <c r="P96" s="56" t="s">
+      <c r="P96" s="65" t="s">
         <v>251</v>
       </c>
       <c r="Q96" s="42"/>
       <c r="R96" s="42"/>
-      <c r="S96" s="59" t="s">
+      <c r="S96" s="70" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="97" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N97" s="58"/>
-      <c r="O97" s="65"/>
-      <c r="P97" s="58"/>
+      <c r="N97" s="66"/>
+      <c r="O97" s="106"/>
+      <c r="P97" s="66"/>
       <c r="Q97" s="42"/>
       <c r="R97" s="42"/>
-      <c r="S97" s="58"/>
+      <c r="S97" s="66"/>
     </row>
     <row r="98" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N98" s="56" t="s">
+      <c r="N98" s="65" t="s">
         <v>40</v>
       </c>
       <c r="O98" s="41"/>
       <c r="P98" s="41"/>
-      <c r="Q98" s="56" t="s">
+      <c r="Q98" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="R98" s="56" t="s">
+      <c r="R98" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="S98" s="59" t="s">
+      <c r="S98" s="70" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="99" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N99" s="57"/>
+      <c r="N99" s="71"/>
       <c r="O99" s="41"/>
       <c r="P99" s="41"/>
-      <c r="Q99" s="58"/>
-      <c r="R99" s="58"/>
-      <c r="S99" s="58"/>
+      <c r="Q99" s="66"/>
+      <c r="R99" s="66"/>
+      <c r="S99" s="66"/>
     </row>
     <row r="100" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N100" s="57"/>
+      <c r="N100" s="71"/>
       <c r="O100" s="41"/>
       <c r="P100" s="41"/>
-      <c r="Q100" s="56" t="s">
+      <c r="Q100" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="R100" s="56" t="s">
+      <c r="R100" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="S100" s="59" t="s">
+      <c r="S100" s="70" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="101" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N101" s="58"/>
+      <c r="N101" s="66"/>
       <c r="O101" s="41"/>
       <c r="P101" s="41"/>
-      <c r="Q101" s="58"/>
-      <c r="R101" s="58"/>
-      <c r="S101" s="58"/>
+      <c r="Q101" s="66"/>
+      <c r="R101" s="66"/>
+      <c r="S101" s="66"/>
     </row>
     <row r="102" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N102" s="56" t="s">
+      <c r="N102" s="65" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="40"/>
       <c r="P102" s="39"/>
-      <c r="Q102" s="60" t="s">
+      <c r="Q102" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="R102" s="56" t="s">
+      <c r="R102" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="S102" s="59" t="s">
+      <c r="S102" s="70" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="103" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N103" s="57"/>
-      <c r="Q103" s="58"/>
-      <c r="R103" s="58"/>
-      <c r="S103" s="58"/>
+      <c r="N103" s="71"/>
+      <c r="Q103" s="66"/>
+      <c r="R103" s="66"/>
+      <c r="S103" s="66"/>
     </row>
     <row r="104" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N104" s="57"/>
+      <c r="N104" s="71"/>
       <c r="O104" s="40"/>
       <c r="P104" s="39"/>
-      <c r="Q104" s="60" t="s">
+      <c r="Q104" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="R104" s="56" t="s">
+      <c r="R104" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="S104" s="59" t="s">
+      <c r="S104" s="70" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="105" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N105" s="58"/>
-      <c r="Q105" s="58"/>
-      <c r="R105" s="58"/>
-      <c r="S105" s="58"/>
+      <c r="N105" s="66"/>
+      <c r="Q105" s="66"/>
+      <c r="R105" s="66"/>
+      <c r="S105" s="66"/>
     </row>
     <row r="106" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N106" s="56" t="s">
+      <c r="N106" s="65" t="s">
         <v>24</v>
       </c>
       <c r="O106" s="40"/>
       <c r="P106" s="39"/>
-      <c r="Q106" s="60" t="s">
+      <c r="Q106" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="R106" s="56" t="s">
+      <c r="R106" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="S106" s="59" t="s">
+      <c r="S106" s="70" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="107" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N107" s="57"/>
-      <c r="Q107" s="58"/>
-      <c r="R107" s="58"/>
-      <c r="S107" s="58"/>
+      <c r="N107" s="71"/>
+      <c r="Q107" s="66"/>
+      <c r="R107" s="66"/>
+      <c r="S107" s="66"/>
     </row>
     <row r="108" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N108" s="57"/>
+      <c r="N108" s="71"/>
       <c r="O108" s="40"/>
       <c r="P108" s="39"/>
-      <c r="Q108" s="60" t="s">
+      <c r="Q108" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="R108" s="56" t="s">
+      <c r="R108" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="S108" s="59" t="s">
+      <c r="S108" s="70" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="109" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N109" s="58"/>
-      <c r="Q109" s="58"/>
-      <c r="R109" s="58"/>
-      <c r="S109" s="58"/>
+      <c r="N109" s="66"/>
+      <c r="Q109" s="66"/>
+      <c r="R109" s="66"/>
+      <c r="S109" s="66"/>
     </row>
     <row r="110" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N110" s="56" t="s">
+      <c r="N110" s="65" t="s">
         <v>22</v>
       </c>
       <c r="O110" s="40"/>
       <c r="P110" s="39"/>
-      <c r="Q110" s="60" t="s">
+      <c r="Q110" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="R110" s="56" t="s">
+      <c r="R110" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="S110" s="59" t="s">
+      <c r="S110" s="70" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="111" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N111" s="57"/>
-      <c r="Q111" s="58"/>
-      <c r="R111" s="58"/>
-      <c r="S111" s="58"/>
+      <c r="N111" s="71"/>
+      <c r="Q111" s="66"/>
+      <c r="R111" s="66"/>
+      <c r="S111" s="66"/>
     </row>
     <row r="112" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N112" s="57"/>
+      <c r="N112" s="71"/>
       <c r="O112" s="40"/>
       <c r="P112" s="39"/>
-      <c r="Q112" s="60" t="s">
+      <c r="Q112" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="R112" s="56" t="s">
+      <c r="R112" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="S112" s="59" t="s">
+      <c r="S112" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="113" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N113" s="58"/>
-      <c r="Q113" s="58"/>
-      <c r="R113" s="58"/>
-      <c r="S113" s="58"/>
+      <c r="N113" s="66"/>
+      <c r="Q113" s="66"/>
+      <c r="R113" s="66"/>
+      <c r="S113" s="66"/>
     </row>
     <row r="114" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N114" s="56" t="s">
+      <c r="N114" s="65" t="s">
         <v>226</v>
       </c>
       <c r="O114" s="40"/>
       <c r="P114" s="39"/>
-      <c r="Q114" s="60" t="s">
+      <c r="Q114" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="R114" s="56" t="s">
+      <c r="R114" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="S114" s="59" t="s">
+      <c r="S114" s="70" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="115" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N115" s="57"/>
-      <c r="Q115" s="58"/>
-      <c r="R115" s="58"/>
-      <c r="S115" s="58"/>
+      <c r="N115" s="71"/>
+      <c r="Q115" s="66"/>
+      <c r="R115" s="66"/>
+      <c r="S115" s="66"/>
     </row>
     <row r="116" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N116" s="57"/>
+      <c r="N116" s="71"/>
       <c r="O116" s="40"/>
       <c r="P116" s="39"/>
-      <c r="Q116" s="60" t="s">
+      <c r="Q116" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="R116" s="56" t="s">
+      <c r="R116" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="S116" s="59" t="s">
+      <c r="S116" s="70" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="117" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N117" s="58"/>
-      <c r="Q117" s="58"/>
-      <c r="R117" s="58"/>
-      <c r="S117" s="58"/>
+      <c r="N117" s="66"/>
+      <c r="Q117" s="66"/>
+      <c r="R117" s="66"/>
+      <c r="S117" s="66"/>
     </row>
     <row r="118" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N118" s="56" t="s">
+      <c r="N118" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q118" s="56" t="s">
+      <c r="Q118" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="R118" s="56" t="s">
+      <c r="R118" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="S118" s="59" t="s">
+      <c r="S118" s="70" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="119" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N119" s="57"/>
-      <c r="Q119" s="58"/>
-      <c r="R119" s="58"/>
-      <c r="S119" s="58"/>
+      <c r="N119" s="71"/>
+      <c r="Q119" s="66"/>
+      <c r="R119" s="66"/>
+      <c r="S119" s="66"/>
     </row>
     <row r="120" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N120" s="57"/>
-      <c r="Q120" s="56" t="s">
+      <c r="N120" s="71"/>
+      <c r="Q120" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="R120" s="56" t="s">
+      <c r="R120" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="S120" s="59" t="s">
+      <c r="S120" s="70" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="121" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N121" s="57"/>
-      <c r="Q121" s="58"/>
-      <c r="R121" s="58"/>
-      <c r="S121" s="58"/>
+      <c r="N121" s="71"/>
+      <c r="Q121" s="66"/>
+      <c r="R121" s="66"/>
+      <c r="S121" s="66"/>
     </row>
     <row r="122" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N122" s="57"/>
-      <c r="Q122" s="56" t="s">
+      <c r="N122" s="71"/>
+      <c r="Q122" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="R122" s="56" t="s">
+      <c r="R122" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="S122" s="59" t="s">
+      <c r="S122" s="70" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="123" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N123" s="58"/>
-      <c r="Q123" s="58"/>
-      <c r="R123" s="58"/>
-      <c r="S123" s="58"/>
+      <c r="N123" s="66"/>
+      <c r="Q123" s="66"/>
+      <c r="R123" s="66"/>
+      <c r="S123" s="66"/>
     </row>
     <row r="124" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N124" s="56" t="s">
+      <c r="N124" s="65" t="s">
         <v>10</v>
       </c>
       <c r="O124" s="40"/>
       <c r="P124" s="39"/>
-      <c r="Q124" s="56" t="s">
+      <c r="Q124" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="R124" s="56" t="s">
+      <c r="R124" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="S124" s="59" t="s">
+      <c r="S124" s="70" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="125" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N125" s="57"/>
-      <c r="Q125" s="58"/>
-      <c r="R125" s="58"/>
-      <c r="S125" s="58"/>
+      <c r="N125" s="71"/>
+      <c r="Q125" s="66"/>
+      <c r="R125" s="66"/>
+      <c r="S125" s="66"/>
     </row>
     <row r="126" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N126" s="57"/>
+      <c r="N126" s="71"/>
       <c r="O126" s="40"/>
       <c r="P126" s="39"/>
-      <c r="Q126" s="56" t="s">
+      <c r="Q126" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="R126" s="56" t="s">
+      <c r="R126" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="S126" s="59" t="s">
+      <c r="S126" s="70" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="127" spans="14:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N127" s="58"/>
+      <c r="N127" s="66"/>
       <c r="O127" s="38"/>
       <c r="P127" s="37"/>
-      <c r="Q127" s="58"/>
-      <c r="R127" s="58"/>
-      <c r="S127" s="58"/>
+      <c r="Q127" s="66"/>
+      <c r="R127" s="66"/>
+      <c r="S127" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="307">
+    <mergeCell ref="N124:N127"/>
+    <mergeCell ref="Q124:Q125"/>
+    <mergeCell ref="R124:R125"/>
+    <mergeCell ref="S124:S125"/>
+    <mergeCell ref="Q126:Q127"/>
+    <mergeCell ref="R126:R127"/>
+    <mergeCell ref="S126:S127"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="Q114:Q115"/>
+    <mergeCell ref="R114:R115"/>
+    <mergeCell ref="S114:S115"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="R116:R117"/>
+    <mergeCell ref="S116:S117"/>
+    <mergeCell ref="N118:N123"/>
+    <mergeCell ref="S118:S119"/>
+    <mergeCell ref="Q120:Q121"/>
+    <mergeCell ref="R120:R121"/>
+    <mergeCell ref="S120:S121"/>
+    <mergeCell ref="Q122:Q123"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="Q118:Q119"/>
+    <mergeCell ref="R118:R119"/>
+    <mergeCell ref="R110:R111"/>
+    <mergeCell ref="S110:S111"/>
+    <mergeCell ref="Q112:Q113"/>
+    <mergeCell ref="R112:R113"/>
+    <mergeCell ref="S112:S113"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="Q110:Q111"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="N72:N75"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="R106:R107"/>
+    <mergeCell ref="S106:S107"/>
+    <mergeCell ref="Q108:Q109"/>
+    <mergeCell ref="R108:R109"/>
+    <mergeCell ref="S108:S109"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="Q102:Q103"/>
+    <mergeCell ref="R102:R103"/>
+    <mergeCell ref="S102:S103"/>
+    <mergeCell ref="Q104:Q105"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="Q106:Q107"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="S94:S95"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="P96:P97"/>
+    <mergeCell ref="S96:S97"/>
+    <mergeCell ref="R104:R105"/>
+    <mergeCell ref="S104:S105"/>
+    <mergeCell ref="R98:R99"/>
+    <mergeCell ref="S98:S99"/>
+    <mergeCell ref="Q100:Q101"/>
+    <mergeCell ref="R100:R101"/>
+    <mergeCell ref="S100:S101"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="Q86:Q87"/>
+    <mergeCell ref="R86:R87"/>
+    <mergeCell ref="S86:S87"/>
+    <mergeCell ref="Q88:Q89"/>
+    <mergeCell ref="R88:R89"/>
+    <mergeCell ref="S88:S89"/>
+    <mergeCell ref="S90:S91"/>
+    <mergeCell ref="S92:S93"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="P90:P91"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="P92:P93"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="S80:S81"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G58:L58"/>
+    <mergeCell ref="G59:L59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="R76:R77"/>
+    <mergeCell ref="S76:S77"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="R78:R79"/>
+    <mergeCell ref="S78:S79"/>
+    <mergeCell ref="Q84:Q85"/>
+    <mergeCell ref="R84:R85"/>
+    <mergeCell ref="S84:S85"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="N80:N85"/>
+    <mergeCell ref="N60:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="R74:R75"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="S68:S69"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:R61"/>
+    <mergeCell ref="S60:S61"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="S64:S65"/>
+    <mergeCell ref="S66:S67"/>
+    <mergeCell ref="N56:N59"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S56:S57"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="S50:S51"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="S48:S49"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="N2:S5"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="B2:L5"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G6:L7"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
@@ -5161,289 +5491,6 @@
     <mergeCell ref="R34:R35"/>
     <mergeCell ref="S34:S35"/>
     <mergeCell ref="S22:S23"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="N2:S5"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="B2:L5"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="G6:L7"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="S50:S51"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="S48:S49"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="S66:S67"/>
-    <mergeCell ref="N56:N59"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="S54:S55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="S56:S57"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="R60:R61"/>
-    <mergeCell ref="S60:S61"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="R64:R65"/>
-    <mergeCell ref="S64:S65"/>
-    <mergeCell ref="R78:R79"/>
-    <mergeCell ref="S78:S79"/>
-    <mergeCell ref="Q84:Q85"/>
-    <mergeCell ref="R84:R85"/>
-    <mergeCell ref="S84:S85"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="N80:N85"/>
-    <mergeCell ref="N60:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="R74:R75"/>
-    <mergeCell ref="S74:S75"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="S68:S69"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="S80:S81"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="G58:L58"/>
-    <mergeCell ref="G59:L59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="Q76:Q77"/>
-    <mergeCell ref="R76:R77"/>
-    <mergeCell ref="S76:S77"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="Q86:Q87"/>
-    <mergeCell ref="R86:R87"/>
-    <mergeCell ref="S86:S87"/>
-    <mergeCell ref="Q88:Q89"/>
-    <mergeCell ref="R88:R89"/>
-    <mergeCell ref="S88:S89"/>
-    <mergeCell ref="S90:S91"/>
-    <mergeCell ref="S92:S93"/>
-    <mergeCell ref="O90:O91"/>
-    <mergeCell ref="P90:P91"/>
-    <mergeCell ref="O92:O93"/>
-    <mergeCell ref="P92:P93"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="S94:S95"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="P96:P97"/>
-    <mergeCell ref="S96:S97"/>
-    <mergeCell ref="R104:R105"/>
-    <mergeCell ref="S104:S105"/>
-    <mergeCell ref="R98:R99"/>
-    <mergeCell ref="S98:S99"/>
-    <mergeCell ref="Q100:Q101"/>
-    <mergeCell ref="R100:R101"/>
-    <mergeCell ref="S100:S101"/>
-    <mergeCell ref="Q108:Q109"/>
-    <mergeCell ref="R108:R109"/>
-    <mergeCell ref="S108:S109"/>
-    <mergeCell ref="N102:N105"/>
-    <mergeCell ref="Q102:Q103"/>
-    <mergeCell ref="R102:R103"/>
-    <mergeCell ref="S102:S103"/>
-    <mergeCell ref="Q104:Q105"/>
-    <mergeCell ref="N106:N109"/>
-    <mergeCell ref="Q106:Q107"/>
-    <mergeCell ref="R110:R111"/>
-    <mergeCell ref="S110:S111"/>
-    <mergeCell ref="Q112:Q113"/>
-    <mergeCell ref="R112:R113"/>
-    <mergeCell ref="S112:S113"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N110:N113"/>
-    <mergeCell ref="Q110:Q111"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="Q98:Q99"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="N72:N75"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="R106:R107"/>
-    <mergeCell ref="S106:S107"/>
-    <mergeCell ref="N124:N127"/>
-    <mergeCell ref="Q124:Q125"/>
-    <mergeCell ref="R124:R125"/>
-    <mergeCell ref="S124:S125"/>
-    <mergeCell ref="Q126:Q127"/>
-    <mergeCell ref="R126:R127"/>
-    <mergeCell ref="S126:S127"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="Q114:Q115"/>
-    <mergeCell ref="R114:R115"/>
-    <mergeCell ref="S114:S115"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="R116:R117"/>
-    <mergeCell ref="S116:S117"/>
-    <mergeCell ref="N118:N123"/>
-    <mergeCell ref="S118:S119"/>
-    <mergeCell ref="Q120:Q121"/>
-    <mergeCell ref="R120:R121"/>
-    <mergeCell ref="S120:S121"/>
-    <mergeCell ref="Q122:Q123"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="Q118:Q119"/>
-    <mergeCell ref="R118:R119"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5454,7 +5501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -5472,209 +5519,209 @@
   <sheetData>
     <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="84" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
-      <c r="L2" s="80" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="L2" s="75" t="s">
         <v>399</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="82"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="80"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="80"/>
     </row>
     <row r="5" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="103"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="88"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
     </row>
     <row r="6" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="102" t="s">
         <v>403</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="76" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="95" t="s">
         <v>395</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="77"/>
-      <c r="L6" s="89" t="s">
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="96"/>
+      <c r="L6" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="M6" s="91"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="89" t="s">
+      <c r="M6" s="61"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="59" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="78"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="90"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="78"/>
-      <c r="C8" s="70" t="s">
+      <c r="B8" s="94"/>
+      <c r="C8" s="102" t="s">
         <v>402</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="76" t="s">
+      <c r="D8" s="104"/>
+      <c r="E8" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="76" t="s">
+      <c r="F8" s="96"/>
+      <c r="G8" s="95" t="s">
         <v>422</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="76" t="s">
+      <c r="H8" s="96"/>
+      <c r="I8" s="95" t="s">
         <v>423</v>
       </c>
-      <c r="J8" s="77"/>
-      <c r="L8" s="56" t="s">
+      <c r="J8" s="96"/>
+      <c r="L8" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="131"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
     </row>
     <row r="9" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="90"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="75"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="133"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="101"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="58"/>
       <c r="N9" s="53"/>
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="53"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="56">
+      <c r="B10" s="65">
         <v>1.1000000000000001</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="73" t="s">
         <v>400</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="4"/>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="133"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="53"/>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
     </row>
     <row r="11" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="57"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="72" t="s">
         <v>401</v>
       </c>
-      <c r="F11" s="63"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="1"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="133"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="58"/>
       <c r="N11" s="53"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
     </row>
     <row r="12" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="57"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="41"/>
       <c r="D12" s="43"/>
       <c r="E12" s="8"/>
@@ -5683,15 +5730,15 @@
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="1"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="133"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="58"/>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="53"/>
     </row>
     <row r="13" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="58"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="44"/>
       <c r="D13" s="41"/>
       <c r="E13" s="42"/>
@@ -5700,99 +5747,99 @@
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="39"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="133"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="58"/>
       <c r="N13" s="53"/>
       <c r="O13" s="53"/>
       <c r="P13" s="53"/>
       <c r="Q13" s="53"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="56">
+      <c r="B14" s="65">
         <v>1.2</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="73" t="s">
         <v>404</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="42"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
       <c r="J14" s="39"/>
-      <c r="L14" s="56" t="s">
+      <c r="L14" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="133"/>
+      <c r="M14" s="58"/>
       <c r="N14" s="53"/>
       <c r="O14" s="53"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
     </row>
     <row r="15" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="58"/>
-      <c r="C15" s="62" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="42"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="41"/>
       <c r="J15" s="39"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="133"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="58"/>
       <c r="N15" s="53"/>
       <c r="O15" s="53"/>
       <c r="P15" s="53"/>
       <c r="Q15" s="53"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="56">
+      <c r="B16" s="65">
         <v>2.1</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="73" t="s">
         <v>406</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="42"/>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
       <c r="J16" s="39"/>
-      <c r="L16" s="56" t="s">
+      <c r="L16" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="M16" s="133"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
     </row>
     <row r="17" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="58"/>
-      <c r="C17" s="62" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="72" t="s">
         <v>407</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="42"/>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="53"/>
       <c r="I17" s="42"/>
       <c r="J17" s="1"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="133"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="58"/>
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
       <c r="P17" s="53"/>
       <c r="Q17" s="53"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="56">
+      <c r="B18" s="65">
         <v>2.2000000000000002</v>
       </c>
       <c r="C18" s="47"/>
@@ -5803,17 +5850,17 @@
       <c r="H18" s="53"/>
       <c r="I18" s="42"/>
       <c r="J18" s="1"/>
-      <c r="L18" s="56" t="s">
+      <c r="L18" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="M18" s="133"/>
+      <c r="M18" s="58"/>
       <c r="N18" s="53"/>
       <c r="O18" s="53"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
     </row>
     <row r="19" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="58"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="44"/>
       <c r="D19" s="41"/>
       <c r="E19" s="42"/>
@@ -5822,137 +5869,137 @@
       <c r="H19" s="41"/>
       <c r="I19" s="53"/>
       <c r="J19" s="55"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="133"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="58"/>
       <c r="N19" s="53"/>
       <c r="O19" s="53"/>
       <c r="P19" s="53"/>
       <c r="Q19" s="53"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="56">
+      <c r="B20" s="65">
         <v>3.1</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="73" t="s">
         <v>408</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="53"/>
       <c r="J20" s="55"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="133"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="58"/>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
       <c r="Q20" s="53"/>
     </row>
     <row r="21" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="57"/>
-      <c r="C21" s="62" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="72" t="s">
         <v>409</v>
       </c>
-      <c r="D21" s="63"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
       <c r="J21" s="39"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="133"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="58"/>
       <c r="N21" s="53"/>
       <c r="O21" s="53"/>
       <c r="P21" s="53"/>
       <c r="Q21" s="53"/>
     </row>
     <row r="22" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="56">
+      <c r="B22" s="65">
         <v>3.2</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="73" t="s">
         <v>410</v>
       </c>
-      <c r="D22" s="60"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="38"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="41"/>
       <c r="I22" s="41"/>
       <c r="J22" s="39"/>
-      <c r="L22" s="56" t="s">
+      <c r="L22" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="133"/>
+      <c r="M22" s="58"/>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
     </row>
     <row r="23" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="58"/>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="72" t="s">
         <v>411</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
       <c r="G23" s="45"/>
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
       <c r="J23" s="39"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="133"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="58"/>
       <c r="N23" s="53"/>
       <c r="O23" s="53"/>
       <c r="P23" s="53"/>
       <c r="Q23" s="53"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="56">
+      <c r="B24" s="65">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="97" t="s">
         <v>412</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="39"/>
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
       <c r="J24" s="39"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="133"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="58"/>
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
       <c r="P24" s="53"/>
       <c r="Q24" s="53"/>
     </row>
     <row r="25" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="57"/>
-      <c r="C25" s="66" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="93" t="s">
         <v>413</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="39"/>
       <c r="H25" s="41"/>
       <c r="I25" s="53"/>
       <c r="J25" s="55"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="133"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="53"/>
       <c r="O25" s="53"/>
       <c r="P25" s="53"/>
       <c r="Q25" s="53"/>
     </row>
     <row r="26" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="57"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="54"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
@@ -5961,97 +6008,97 @@
       <c r="H26" s="41"/>
       <c r="I26" s="53"/>
       <c r="J26" s="55"/>
-      <c r="L26" s="56" t="s">
+      <c r="L26" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="M26" s="133"/>
+      <c r="M26" s="58"/>
       <c r="N26" s="53"/>
       <c r="O26" s="53"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="53"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
-      <c r="C27" s="67" t="s">
+      <c r="B27" s="71"/>
+      <c r="C27" s="97" t="s">
         <v>414</v>
       </c>
-      <c r="D27" s="60"/>
+      <c r="D27" s="74"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="39"/>
       <c r="H27" s="41"/>
       <c r="I27" s="42"/>
       <c r="J27" s="1"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="133"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="58"/>
       <c r="N27" s="53"/>
       <c r="O27" s="53"/>
       <c r="P27" s="53"/>
       <c r="Q27" s="53"/>
     </row>
     <row r="28" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="58"/>
-      <c r="C28" s="66" t="s">
+      <c r="B28" s="66"/>
+      <c r="C28" s="93" t="s">
         <v>415</v>
       </c>
-      <c r="D28" s="63"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
       <c r="G28" s="39"/>
       <c r="H28" s="41"/>
       <c r="I28" s="42"/>
       <c r="J28" s="1"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="133"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="58"/>
       <c r="N28" s="53"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
     </row>
     <row r="29" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="56">
+      <c r="B29" s="65">
         <v>4.2</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="73" t="s">
         <v>416</v>
       </c>
-      <c r="D29" s="60"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="39"/>
       <c r="H29" s="41"/>
       <c r="I29" s="53"/>
       <c r="J29" s="55"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="133"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="58"/>
       <c r="N29" s="53"/>
       <c r="O29" s="53"/>
       <c r="P29" s="53"/>
       <c r="Q29" s="53"/>
     </row>
     <row r="30" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="57"/>
-      <c r="C30" s="62" t="s">
+      <c r="B30" s="71"/>
+      <c r="C30" s="72" t="s">
         <v>417</v>
       </c>
-      <c r="D30" s="63"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
       <c r="G30" s="39"/>
       <c r="H30" s="41"/>
       <c r="I30" s="53"/>
       <c r="J30" s="55"/>
-      <c r="L30" s="56" t="s">
+      <c r="L30" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="M30" s="133"/>
+      <c r="M30" s="58"/>
       <c r="N30" s="53"/>
       <c r="O30" s="53"/>
       <c r="P30" s="53"/>
       <c r="Q30" s="53"/>
     </row>
     <row r="31" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="57"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="54"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
@@ -6060,55 +6107,55 @@
       <c r="H31" s="41"/>
       <c r="I31" s="42"/>
       <c r="J31" s="1"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="133"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="58"/>
       <c r="N31" s="53"/>
       <c r="O31" s="53"/>
       <c r="P31" s="53"/>
       <c r="Q31" s="53"/>
     </row>
     <row r="32" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="57"/>
-      <c r="C32" s="61" t="s">
+      <c r="B32" s="71"/>
+      <c r="C32" s="73" t="s">
         <v>418</v>
       </c>
-      <c r="D32" s="60"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="38"/>
       <c r="F32" s="43"/>
       <c r="G32" s="37"/>
       <c r="H32" s="41"/>
       <c r="I32" s="42"/>
       <c r="J32" s="1"/>
-      <c r="L32" s="56" t="s">
+      <c r="L32" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="M32" s="133"/>
+      <c r="M32" s="58"/>
       <c r="N32" s="53"/>
       <c r="O32" s="53"/>
       <c r="P32" s="53"/>
       <c r="Q32" s="53"/>
     </row>
     <row r="33" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="57"/>
-      <c r="C33" s="62" t="s">
+      <c r="B33" s="71"/>
+      <c r="C33" s="72" t="s">
         <v>419</v>
       </c>
-      <c r="D33" s="63"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
       <c r="G33" s="45"/>
       <c r="H33" s="41"/>
       <c r="I33" s="42"/>
       <c r="J33" s="1"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="133"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="58"/>
       <c r="N33" s="53"/>
       <c r="O33" s="53"/>
       <c r="P33" s="53"/>
       <c r="Q33" s="53"/>
     </row>
     <row r="34" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="57"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="54"/>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
@@ -6117,95 +6164,95 @@
       <c r="H34" s="41"/>
       <c r="I34" s="42"/>
       <c r="J34" s="1"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="133"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="58"/>
       <c r="N34" s="53"/>
       <c r="O34" s="53"/>
       <c r="P34" s="53"/>
       <c r="Q34" s="53"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="57"/>
-      <c r="C35" s="61" t="s">
+      <c r="B35" s="71"/>
+      <c r="C35" s="73" t="s">
         <v>420</v>
       </c>
-      <c r="D35" s="60"/>
+      <c r="D35" s="74"/>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
       <c r="G35" s="39"/>
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="J35" s="39"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="133"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="58"/>
       <c r="N35" s="53"/>
       <c r="O35" s="53"/>
       <c r="P35" s="53"/>
       <c r="Q35" s="53"/>
     </row>
     <row r="36" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="58"/>
-      <c r="C36" s="62" t="s">
+      <c r="B36" s="66"/>
+      <c r="C36" s="72" t="s">
         <v>421</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
       <c r="G36" s="37"/>
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
       <c r="J36" s="39"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="133"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="58"/>
       <c r="N36" s="53"/>
       <c r="O36" s="53"/>
       <c r="P36" s="53"/>
       <c r="Q36" s="53"/>
     </row>
     <row r="37" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="56">
+      <c r="B37" s="65">
         <v>5.0999999999999996</v>
       </c>
       <c r="C37" s="47"/>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="60"/>
+      <c r="H37" s="74"/>
       <c r="I37" s="53"/>
       <c r="J37" s="55"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="133"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="58"/>
       <c r="N37" s="53"/>
       <c r="O37" s="53"/>
       <c r="P37" s="53"/>
       <c r="Q37" s="53"/>
     </row>
     <row r="38" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="57"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="46"/>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
-      <c r="G38" s="62" t="s">
+      <c r="G38" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="H38" s="63"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="53"/>
       <c r="J38" s="55"/>
-      <c r="L38" s="56" t="s">
+      <c r="L38" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="M38" s="133"/>
+      <c r="M38" s="58"/>
       <c r="N38" s="53"/>
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
       <c r="Q38" s="53"/>
     </row>
     <row r="39" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="57"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="46"/>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
@@ -6214,15 +6261,15 @@
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
       <c r="J39" s="39"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="133"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="58"/>
       <c r="N39" s="53"/>
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
       <c r="Q39" s="53"/>
     </row>
     <row r="40" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="58"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="44"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
@@ -6231,59 +6278,59 @@
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
       <c r="J40" s="39"/>
-      <c r="L40" s="56" t="s">
+      <c r="L40" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="133"/>
+      <c r="M40" s="58"/>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
       <c r="Q40" s="53"/>
     </row>
     <row r="41" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="56">
+      <c r="B41" s="65">
         <v>5.2</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="60"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
       <c r="G41" s="39"/>
       <c r="H41" s="41"/>
       <c r="I41" s="53"/>
       <c r="J41" s="55"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="133"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="58"/>
       <c r="N41" s="53"/>
       <c r="O41" s="53"/>
       <c r="P41" s="53"/>
       <c r="Q41" s="53"/>
     </row>
     <row r="42" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="57"/>
-      <c r="C42" s="62" t="s">
+      <c r="B42" s="71"/>
+      <c r="C42" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="67"/>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
       <c r="G42" s="39"/>
       <c r="H42" s="41"/>
       <c r="I42" s="53"/>
       <c r="J42" s="55"/>
-      <c r="L42" s="56" t="s">
+      <c r="L42" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="M42" s="133"/>
+      <c r="M42" s="58"/>
       <c r="N42" s="53"/>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
       <c r="Q42" s="53"/>
     </row>
     <row r="43" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="57"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="47"/>
       <c r="D43" s="38"/>
       <c r="E43" s="43"/>
@@ -6292,15 +6339,15 @@
       <c r="H43" s="41"/>
       <c r="I43" s="53"/>
       <c r="J43" s="55"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="133"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="58"/>
       <c r="N43" s="53"/>
       <c r="O43" s="53"/>
       <c r="P43" s="53"/>
       <c r="Q43" s="53"/>
     </row>
     <row r="44" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="57"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="41"/>
       <c r="D44" s="41"/>
       <c r="E44" s="50"/>
@@ -6309,97 +6356,97 @@
       <c r="H44" s="41"/>
       <c r="I44" s="53"/>
       <c r="J44" s="55"/>
-      <c r="L44" s="56" t="s">
+      <c r="L44" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="M44" s="133"/>
+      <c r="M44" s="58"/>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
       <c r="P44" s="53"/>
       <c r="Q44" s="53"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="57"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="41"/>
       <c r="D45" s="41"/>
-      <c r="E45" s="61" t="s">
+      <c r="E45" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="60"/>
+      <c r="F45" s="74"/>
       <c r="G45" s="39"/>
       <c r="H45" s="41"/>
       <c r="I45" s="53"/>
       <c r="J45" s="55"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="133"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="58"/>
       <c r="N45" s="53"/>
       <c r="O45" s="53"/>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
     </row>
     <row r="46" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="58"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
-      <c r="E46" s="62" t="s">
+      <c r="E46" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="63"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="39"/>
       <c r="H46" s="41"/>
       <c r="I46" s="53"/>
       <c r="J46" s="55"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="133"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="58"/>
       <c r="N46" s="53"/>
       <c r="O46" s="53"/>
       <c r="P46" s="53"/>
       <c r="Q46" s="53"/>
     </row>
     <row r="47" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="56">
+      <c r="B47" s="65">
         <v>6.1</v>
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="41"/>
-      <c r="E47" s="61" t="s">
+      <c r="E47" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="60"/>
+      <c r="F47" s="74"/>
       <c r="G47" s="39"/>
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
       <c r="J47" s="39"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="133"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="58"/>
       <c r="N47" s="53"/>
       <c r="O47" s="53"/>
       <c r="P47" s="53"/>
       <c r="Q47" s="53"/>
     </row>
     <row r="48" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="57"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="41"/>
       <c r="D48" s="41"/>
-      <c r="E48" s="62" t="s">
+      <c r="E48" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="63"/>
+      <c r="F48" s="67"/>
       <c r="G48" s="39"/>
       <c r="H48" s="41"/>
       <c r="I48" s="41"/>
       <c r="J48" s="39"/>
-      <c r="L48" s="56" t="s">
+      <c r="L48" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="M48" s="133"/>
+      <c r="M48" s="58"/>
       <c r="N48" s="53"/>
       <c r="O48" s="53"/>
       <c r="P48" s="53"/>
       <c r="Q48" s="53"/>
     </row>
     <row r="49" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="57"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="41"/>
       <c r="D49" s="41"/>
       <c r="E49" s="45"/>
@@ -6408,15 +6455,15 @@
       <c r="H49" s="43"/>
       <c r="I49" s="43"/>
       <c r="J49" s="39"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="133"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="58"/>
       <c r="N49" s="53"/>
       <c r="O49" s="53"/>
       <c r="P49" s="53"/>
       <c r="Q49" s="53"/>
     </row>
     <row r="50" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="57"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="41"/>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
@@ -6425,57 +6472,57 @@
       <c r="H50" s="41"/>
       <c r="I50" s="50"/>
       <c r="J50" s="39"/>
-      <c r="L50" s="56" t="s">
+      <c r="L50" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="133"/>
+      <c r="M50" s="58"/>
       <c r="N50" s="53"/>
       <c r="O50" s="53"/>
       <c r="P50" s="53"/>
       <c r="Q50" s="53"/>
     </row>
     <row r="51" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="57"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="41"/>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
       <c r="G51" s="39"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="61" t="s">
+      <c r="I51" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="60"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="133"/>
+      <c r="J51" s="74"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="58"/>
       <c r="N51" s="53"/>
       <c r="O51" s="53"/>
       <c r="P51" s="53"/>
       <c r="Q51" s="53"/>
     </row>
     <row r="52" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="57"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="41"/>
       <c r="D52" s="41"/>
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
       <c r="G52" s="39"/>
       <c r="H52" s="41"/>
-      <c r="I52" s="62" t="s">
+      <c r="I52" s="72" t="s">
         <v>425</v>
       </c>
-      <c r="J52" s="63"/>
-      <c r="L52" s="56" t="s">
+      <c r="J52" s="67"/>
+      <c r="L52" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="M52" s="133"/>
+      <c r="M52" s="58"/>
       <c r="N52" s="53"/>
       <c r="O52" s="53"/>
       <c r="P52" s="53"/>
       <c r="Q52" s="53"/>
     </row>
     <row r="53" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="57"/>
+      <c r="B53" s="71"/>
       <c r="C53" s="41"/>
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
@@ -6484,15 +6531,15 @@
       <c r="H53" s="43"/>
       <c r="I53" s="50"/>
       <c r="J53" s="39"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="133"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="58"/>
       <c r="N53" s="53"/>
       <c r="O53" s="53"/>
       <c r="P53" s="53"/>
       <c r="Q53" s="53"/>
     </row>
     <row r="54" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="58"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="41"/>
       <c r="D54" s="41"/>
       <c r="E54" s="39"/>
@@ -6501,150 +6548,150 @@
       <c r="H54" s="41"/>
       <c r="I54" s="41"/>
       <c r="J54" s="39"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="133"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="58"/>
       <c r="N54" s="53"/>
       <c r="O54" s="53"/>
       <c r="P54" s="53"/>
       <c r="Q54" s="53"/>
     </row>
     <row r="55" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="56">
+      <c r="B55" s="65">
         <v>6.2</v>
       </c>
       <c r="C55" s="41"/>
       <c r="D55" s="41"/>
-      <c r="E55" s="61" t="s">
+      <c r="E55" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61" t="s">
+      <c r="F55" s="74"/>
+      <c r="G55" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="60"/>
+      <c r="H55" s="74"/>
       <c r="I55" s="41"/>
       <c r="J55" s="39"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="133"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="58"/>
       <c r="N55" s="53"/>
       <c r="O55" s="53"/>
       <c r="P55" s="53"/>
       <c r="Q55" s="53"/>
     </row>
     <row r="56" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="57"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="41"/>
       <c r="D56" s="41"/>
-      <c r="E56" s="62" t="s">
+      <c r="E56" s="72" t="s">
         <v>426</v>
       </c>
-      <c r="F56" s="63"/>
-      <c r="G56" s="62" t="s">
+      <c r="F56" s="67"/>
+      <c r="G56" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="63"/>
+      <c r="H56" s="67"/>
       <c r="I56" s="41"/>
       <c r="J56" s="39"/>
-      <c r="L56" s="56" t="s">
+      <c r="L56" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M56" s="133"/>
+      <c r="M56" s="58"/>
       <c r="N56" s="53"/>
       <c r="O56" s="53"/>
       <c r="P56" s="53"/>
       <c r="Q56" s="53"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B57" s="57"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="41"/>
       <c r="D57" s="41"/>
-      <c r="E57" s="61" t="s">
+      <c r="E57" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="60"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="74"/>
       <c r="I57" s="41"/>
       <c r="J57" s="39"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="133"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="58"/>
       <c r="N57" s="53"/>
       <c r="O57" s="53"/>
       <c r="P57" s="53"/>
       <c r="Q57" s="53"/>
     </row>
     <row r="58" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="58"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="43"/>
       <c r="D58" s="43"/>
-      <c r="E58" s="62" t="s">
+      <c r="E58" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="63"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="67"/>
       <c r="I58" s="43"/>
       <c r="J58" s="37"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="133"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="58"/>
       <c r="N58" s="53"/>
       <c r="O58" s="53"/>
       <c r="P58" s="53"/>
       <c r="Q58" s="53"/>
     </row>
     <row r="59" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L59" s="58"/>
-      <c r="M59" s="133"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="58"/>
       <c r="N59" s="53"/>
       <c r="O59" s="53"/>
       <c r="P59" s="53"/>
       <c r="Q59" s="53"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L60" s="56" t="s">
+      <c r="L60" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M60" s="133"/>
+      <c r="M60" s="58"/>
       <c r="N60" s="53"/>
       <c r="O60" s="53"/>
       <c r="P60" s="53"/>
       <c r="Q60" s="53"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L61" s="57"/>
-      <c r="M61" s="133"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="58"/>
       <c r="N61" s="53"/>
       <c r="O61" s="53"/>
       <c r="P61" s="53"/>
       <c r="Q61" s="53"/>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L62" s="57"/>
-      <c r="M62" s="133"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="58"/>
       <c r="N62" s="53"/>
       <c r="O62" s="53"/>
       <c r="P62" s="53"/>
       <c r="Q62" s="53"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L63" s="57"/>
-      <c r="M63" s="133"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="58"/>
       <c r="N63" s="53"/>
       <c r="O63" s="53"/>
       <c r="P63" s="53"/>
       <c r="Q63" s="53"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L64" s="57"/>
-      <c r="M64" s="133"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="58"/>
       <c r="N64" s="53"/>
       <c r="O64" s="53"/>
       <c r="P64" s="53"/>
       <c r="Q64" s="53"/>
     </row>
     <row r="65" spans="12:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L65" s="58"/>
-      <c r="M65" s="133"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="58"/>
       <c r="N65" s="53"/>
       <c r="O65" s="53"/>
       <c r="P65" s="53"/>
@@ -6652,49 +6699,12 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="L32:L37"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B2:J5"/>
+    <mergeCell ref="L2:Q5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:J7"/>
+    <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="E58:H58"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:D14"/>
@@ -6710,29 +6720,66 @@
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="L10:L13"/>
     <mergeCell ref="G37:H37"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="L32:L37"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="L26:L29"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:F9"/>
     <mergeCell ref="G8:H9"/>
     <mergeCell ref="I8:J9"/>
-    <mergeCell ref="B2:J5"/>
-    <mergeCell ref="L2:Q5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:J7"/>
-    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6768,196 +6815,196 @@
   <sheetData>
     <row r="1" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111"/>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="111"/>
-      <c r="AJ2" s="111"/>
-      <c r="AK2" s="111"/>
-      <c r="AL2" s="111"/>
-      <c r="AM2" s="111"/>
-      <c r="AN2" s="111"/>
-      <c r="AO2" s="111"/>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="112"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="110"/>
+      <c r="AN2" s="110"/>
+      <c r="AO2" s="110"/>
+      <c r="AP2" s="110"/>
+      <c r="AQ2" s="111"/>
     </row>
     <row r="3" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="114"/>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114"/>
-      <c r="AQ3" s="115"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="114"/>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="114"/>
-      <c r="AJ4" s="114"/>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="114"/>
-      <c r="AN4" s="114"/>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="115"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="113"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="114"/>
     </row>
     <row r="5" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="117"/>
-      <c r="AF5" s="117"/>
-      <c r="AG5" s="117"/>
-      <c r="AH5" s="117"/>
-      <c r="AI5" s="117"/>
-      <c r="AJ5" s="117"/>
-      <c r="AK5" s="117"/>
-      <c r="AL5" s="117"/>
-      <c r="AM5" s="117"/>
-      <c r="AN5" s="117"/>
-      <c r="AO5" s="117"/>
-      <c r="AP5" s="117"/>
-      <c r="AQ5" s="118"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116"/>
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116"/>
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="117"/>
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="78" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="119"/>
       <c r="E6" s="119"/>
       <c r="F6" s="119"/>
-      <c r="G6" s="85"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="120"/>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="78" t="s">
         <v>145</v>
       </c>
       <c r="J6" s="119"/>
@@ -6966,17 +7013,17 @@
       <c r="M6" s="119"/>
       <c r="N6" s="119"/>
       <c r="O6" s="119"/>
-      <c r="P6" s="85"/>
+      <c r="P6" s="80"/>
       <c r="Q6" s="120"/>
-      <c r="R6" s="83" t="s">
+      <c r="R6" s="78" t="s">
         <v>144</v>
       </c>
       <c r="S6" s="119"/>
       <c r="T6" s="119"/>
       <c r="U6" s="119"/>
-      <c r="V6" s="85"/>
+      <c r="V6" s="80"/>
       <c r="W6" s="120"/>
-      <c r="X6" s="83" t="s">
+      <c r="X6" s="78" t="s">
         <v>143</v>
       </c>
       <c r="Y6" s="119"/>
@@ -6985,192 +7032,192 @@
       <c r="AB6" s="119"/>
       <c r="AC6" s="119"/>
       <c r="AD6" s="119"/>
-      <c r="AE6" s="85"/>
+      <c r="AE6" s="80"/>
       <c r="AF6" s="120"/>
-      <c r="AG6" s="83" t="s">
+      <c r="AG6" s="78" t="s">
         <v>134</v>
       </c>
       <c r="AH6" s="119"/>
       <c r="AI6" s="119"/>
       <c r="AJ6" s="119"/>
-      <c r="AK6" s="85"/>
+      <c r="AK6" s="80"/>
       <c r="AL6" s="120"/>
-      <c r="AM6" s="83" t="s">
+      <c r="AM6" s="78" t="s">
         <v>142</v>
       </c>
       <c r="AN6" s="119"/>
       <c r="AO6" s="119"/>
       <c r="AP6" s="119"/>
-      <c r="AQ6" s="85"/>
+      <c r="AQ6" s="80"/>
     </row>
     <row r="7" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="95"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
       <c r="H7" s="121"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="88"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="83"/>
       <c r="Q7" s="121"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="88"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="83"/>
       <c r="W7" s="121"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="88"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="83"/>
       <c r="AF7" s="121"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="87"/>
-      <c r="AK7" s="88"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="83"/>
       <c r="AL7" s="121"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="87"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="88"/>
+      <c r="AM7" s="81"/>
+      <c r="AN7" s="82"/>
+      <c r="AO7" s="82"/>
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="83"/>
     </row>
     <row r="8" spans="2:43" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
-      <c r="C8" s="76" t="s">
+      <c r="B8" s="118"/>
+      <c r="C8" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="77"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="77"/>
+      <c r="G8" s="96"/>
       <c r="H8" s="121"/>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="72"/>
+      <c r="J8" s="104"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="70" t="s">
+      <c r="L8" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="72"/>
+      <c r="M8" s="104"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="70" t="s">
+      <c r="O8" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="72"/>
+      <c r="P8" s="104"/>
       <c r="Q8" s="121"/>
-      <c r="R8" s="70" t="s">
+      <c r="R8" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="S8" s="72"/>
+      <c r="S8" s="104"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="70" t="s">
+      <c r="U8" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="V8" s="72"/>
+      <c r="V8" s="104"/>
       <c r="W8" s="121"/>
       <c r="X8" s="123" t="s">
         <v>137</v>
       </c>
       <c r="Y8" s="124"/>
       <c r="Z8" s="15"/>
-      <c r="AA8" s="70" t="s">
+      <c r="AA8" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="AB8" s="72"/>
+      <c r="AB8" s="104"/>
       <c r="AC8" s="15"/>
-      <c r="AD8" s="70" t="s">
+      <c r="AD8" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="AE8" s="72"/>
+      <c r="AE8" s="104"/>
       <c r="AF8" s="121"/>
-      <c r="AG8" s="70" t="s">
+      <c r="AG8" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="AH8" s="72"/>
+      <c r="AH8" s="104"/>
       <c r="AI8" s="15"/>
-      <c r="AJ8" s="70" t="s">
+      <c r="AJ8" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="AK8" s="72"/>
+      <c r="AK8" s="104"/>
       <c r="AL8" s="121"/>
-      <c r="AM8" s="70" t="s">
+      <c r="AM8" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="AN8" s="72"/>
+      <c r="AN8" s="104"/>
       <c r="AO8" s="15"/>
-      <c r="AP8" s="70" t="s">
+      <c r="AP8" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="AQ8" s="72"/>
+      <c r="AQ8" s="104"/>
     </row>
     <row r="9" spans="2:43" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="95"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
       <c r="H9" s="122"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="96"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="77"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="96"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="77"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
       <c r="Q9" s="122"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="75"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="101"/>
       <c r="T9" s="15"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="77"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="96"/>
       <c r="W9" s="122"/>
       <c r="X9" s="125"/>
       <c r="Y9" s="124"/>
       <c r="Z9" s="15"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="77"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="96"/>
       <c r="AC9" s="15"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="77"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="96"/>
       <c r="AF9" s="122"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="77"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="96"/>
       <c r="AI9" s="15"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="77"/>
+      <c r="AJ9" s="95"/>
+      <c r="AK9" s="96"/>
       <c r="AL9" s="122"/>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="77"/>
+      <c r="AM9" s="95"/>
+      <c r="AN9" s="96"/>
       <c r="AO9" s="15"/>
-      <c r="AP9" s="76"/>
-      <c r="AQ9" s="77"/>
+      <c r="AP9" s="95"/>
+      <c r="AQ9" s="96"/>
     </row>
     <row r="10" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B10" s="56">
+      <c r="B10" s="65">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -7187,10 +7234,10 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="61" t="s">
+      <c r="U10" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="60"/>
+      <c r="V10" s="74"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -7214,11 +7261,11 @@
       <c r="AQ10" s="4"/>
     </row>
     <row r="11" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="57"/>
-      <c r="C11" s="66" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -7235,10 +7282,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="62" t="s">
+      <c r="U11" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="V11" s="63"/>
+      <c r="V11" s="67"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -7262,7 +7309,7 @@
       <c r="AQ11" s="1"/>
     </row>
     <row r="12" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="57"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="12"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
@@ -7306,7 +7353,7 @@
       <c r="AQ12" s="1"/>
     </row>
     <row r="13" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="57"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="10"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -7350,19 +7397,19 @@
       <c r="AQ13" s="1"/>
     </row>
     <row r="14" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="67" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="60"/>
+      <c r="J14" s="74"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -7376,13 +7423,13 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="61" t="s">
+      <c r="X14" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="60"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="74"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="1"/>
@@ -7400,19 +7447,19 @@
       <c r="AQ14" s="1"/>
     </row>
     <row r="15" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="58"/>
-      <c r="C15" s="66" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="63"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -7426,13 +7473,13 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="62" t="s">
+      <c r="X15" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="63"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="67"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="2"/>
@@ -7450,21 +7497,21 @@
       <c r="AQ15" s="2"/>
     </row>
     <row r="16" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="56">
+      <c r="B16" s="65">
         <v>1.2</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="9"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="60"/>
+      <c r="J16" s="74"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -7472,10 +7519,10 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="61" t="s">
+      <c r="R16" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="S16" s="60"/>
+      <c r="S16" s="74"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -7486,13 +7533,13 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
-      <c r="AD16" s="61" t="s">
+      <c r="AD16" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="60"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="74"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
@@ -7504,19 +7551,19 @@
       <c r="AQ16" s="4"/>
     </row>
     <row r="17" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="57"/>
-      <c r="C17" s="66" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="62" t="s">
+      <c r="I17" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="63"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -7524,10 +7571,10 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="62" t="s">
+      <c r="R17" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="S17" s="63"/>
+      <c r="S17" s="67"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -7538,13 +7585,13 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
-      <c r="AD17" s="62" t="s">
+      <c r="AD17" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="63"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="67"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
@@ -7556,7 +7603,7 @@
       <c r="AQ17" s="1"/>
     </row>
     <row r="18" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="57"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="12"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
@@ -7600,7 +7647,7 @@
       <c r="AQ18" s="1"/>
     </row>
     <row r="19" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="57"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="11"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -7644,17 +7691,17 @@
       <c r="AQ19" s="1"/>
     </row>
     <row r="20" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="11"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="60"/>
+      <c r="J20" s="74"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -7690,17 +7737,17 @@
       <c r="AQ20" s="1"/>
     </row>
     <row r="21" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="58"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="10"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="62" t="s">
+      <c r="I21" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="J21" s="63"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -7736,21 +7783,21 @@
       <c r="AQ21" s="2"/>
     </row>
     <row r="22" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B22" s="56">
+      <c r="B22" s="65">
         <v>2.1</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="60"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="61" t="s">
+      <c r="I22" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="J22" s="60"/>
+      <c r="J22" s="74"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -7758,10 +7805,10 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="61" t="s">
+      <c r="R22" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="S22" s="60"/>
+      <c r="S22" s="74"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -7769,10 +7816,10 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
-      <c r="AA22" s="61" t="s">
+      <c r="AA22" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="AB22" s="60"/>
+      <c r="AB22" s="74"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="7"/>
@@ -7790,19 +7837,19 @@
       <c r="AQ22" s="4"/>
     </row>
     <row r="23" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="57"/>
-      <c r="C23" s="66" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="62" t="s">
+      <c r="I23" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="63"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -7810,10 +7857,10 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="62" t="s">
+      <c r="R23" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="S23" s="63"/>
+      <c r="S23" s="67"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -7821,10 +7868,10 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
-      <c r="AA23" s="62" t="s">
+      <c r="AA23" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="AB23" s="63"/>
+      <c r="AB23" s="67"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="3"/>
@@ -7842,7 +7889,7 @@
       <c r="AQ23" s="1"/>
     </row>
     <row r="24" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="57"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="12"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -7886,7 +7933,7 @@
       <c r="AQ24" s="1"/>
     </row>
     <row r="25" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="57"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="11"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -7930,7 +7977,7 @@
       <c r="AQ25" s="1"/>
     </row>
     <row r="26" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="57"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="11"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -7940,10 +7987,10 @@
       <c r="I26" s="1"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="61" t="s">
+      <c r="L26" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="60"/>
+      <c r="M26" s="74"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -7969,16 +8016,16 @@
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-      <c r="AM26" s="61" t="s">
+      <c r="AM26" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="AN26" s="60"/>
+      <c r="AN26" s="74"/>
       <c r="AO26" s="6"/>
       <c r="AP26" s="5"/>
       <c r="AQ26" s="1"/>
     </row>
     <row r="27" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="58"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="10"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -7988,10 +8035,10 @@
       <c r="I27" s="2"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="62" t="s">
+      <c r="L27" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="M27" s="63"/>
+      <c r="M27" s="67"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -8017,22 +8064,22 @@
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="62" t="s">
+      <c r="AM27" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="AN27" s="63"/>
+      <c r="AN27" s="67"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="8"/>
       <c r="AQ27" s="2"/>
     </row>
     <row r="28" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="56">
+      <c r="B28" s="65">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="60"/>
+      <c r="D28" s="74"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -8040,10 +8087,10 @@
       <c r="I28" s="4"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="61" t="s">
+      <c r="L28" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="M28" s="60"/>
+      <c r="M28" s="74"/>
       <c r="N28" s="9"/>
       <c r="O28" s="13"/>
       <c r="P28" s="7"/>
@@ -8057,20 +8104,20 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
-      <c r="AA28" s="61" t="s">
+      <c r="AA28" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="AB28" s="60"/>
+      <c r="AB28" s="74"/>
       <c r="AC28" s="7"/>
-      <c r="AD28" s="61" t="s">
+      <c r="AD28" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="AE28" s="60"/>
+      <c r="AE28" s="74"/>
       <c r="AF28" s="7"/>
-      <c r="AG28" s="61" t="s">
+      <c r="AG28" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="AH28" s="60"/>
+      <c r="AH28" s="74"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
@@ -8078,17 +8125,17 @@
       <c r="AM28" s="4"/>
       <c r="AN28" s="7"/>
       <c r="AO28" s="7"/>
-      <c r="AP28" s="61" t="s">
+      <c r="AP28" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="AQ28" s="60"/>
+      <c r="AQ28" s="74"/>
     </row>
     <row r="29" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="58"/>
-      <c r="C29" s="62" t="s">
+      <c r="B29" s="66"/>
+      <c r="C29" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="63"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -8096,10 +8143,10 @@
       <c r="I29" s="2"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="62" t="s">
+      <c r="L29" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="M29" s="63"/>
+      <c r="M29" s="67"/>
       <c r="N29" s="5"/>
       <c r="O29" s="8"/>
       <c r="P29" s="5"/>
@@ -8113,20 +8160,20 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="62" t="s">
+      <c r="AA29" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="AB29" s="63"/>
+      <c r="AB29" s="67"/>
       <c r="AC29" s="5"/>
-      <c r="AD29" s="62" t="s">
+      <c r="AD29" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="AE29" s="63"/>
+      <c r="AE29" s="67"/>
       <c r="AF29" s="5"/>
-      <c r="AG29" s="62" t="s">
+      <c r="AG29" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="AH29" s="63"/>
+      <c r="AH29" s="67"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
@@ -8134,13 +8181,13 @@
       <c r="AM29" s="2"/>
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
-      <c r="AP29" s="62" t="s">
+      <c r="AP29" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="AQ29" s="63"/>
+      <c r="AQ29" s="67"/>
     </row>
     <row r="30" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B30" s="56">
+      <c r="B30" s="65">
         <v>3.1</v>
       </c>
       <c r="C30" s="12"/>
@@ -8149,25 +8196,25 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="61" t="s">
+      <c r="I30" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="J30" s="60"/>
+      <c r="J30" s="74"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="61" t="s">
+      <c r="L30" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="M30" s="60"/>
+      <c r="M30" s="74"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="61" t="s">
+      <c r="O30" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="P30" s="60"/>
+      <c r="P30" s="74"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="61" t="s">
+      <c r="R30" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="S30" s="60"/>
+      <c r="S30" s="74"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
@@ -8175,13 +8222,13 @@
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="61" t="s">
+      <c r="AA30" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="60"/>
+      <c r="AB30" s="97"/>
+      <c r="AC30" s="97"/>
+      <c r="AD30" s="97"/>
+      <c r="AE30" s="74"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="7"/>
@@ -8196,32 +8243,32 @@
       <c r="AQ30" s="4"/>
     </row>
     <row r="31" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="57"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="11"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="62" t="s">
+      <c r="I31" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="J31" s="63"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="62" t="s">
+      <c r="L31" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="M31" s="63"/>
+      <c r="M31" s="67"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="62" t="s">
+      <c r="O31" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="P31" s="63"/>
+      <c r="P31" s="67"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="62" t="s">
+      <c r="R31" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="S31" s="63"/>
+      <c r="S31" s="67"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
@@ -8229,13 +8276,13 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
-      <c r="AA31" s="62" t="s">
+      <c r="AA31" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="63"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="93"/>
+      <c r="AE31" s="67"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="3"/>
@@ -8250,7 +8297,7 @@
       <c r="AQ31" s="1"/>
     </row>
     <row r="32" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="57"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="11"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -8294,7 +8341,7 @@
       <c r="AQ32" s="1"/>
     </row>
     <row r="33" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="57"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="11"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -8338,14 +8385,14 @@
       <c r="AQ33" s="1"/>
     </row>
     <row r="34" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B34" s="57"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="11"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="60"/>
+      <c r="G34" s="74"/>
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
@@ -8384,14 +8431,14 @@
       <c r="AQ34" s="1"/>
     </row>
     <row r="35" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="58"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="10"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="63"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="5"/>
       <c r="I35" s="2"/>
       <c r="J35" s="5"/>
@@ -8430,42 +8477,42 @@
       <c r="AQ35" s="2"/>
     </row>
     <row r="36" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B36" s="56">
+      <c r="B36" s="65">
         <v>3.2</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="60"/>
+      <c r="G36" s="74"/>
       <c r="H36" s="7"/>
       <c r="I36" s="4"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="61" t="s">
+      <c r="L36" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="M36" s="60"/>
+      <c r="M36" s="74"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="61" t="s">
+      <c r="O36" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="P36" s="60"/>
+      <c r="P36" s="74"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="61" t="s">
+      <c r="R36" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="S36" s="60"/>
+      <c r="S36" s="74"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
-      <c r="X36" s="61" t="s">
+      <c r="X36" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="Y36" s="60"/>
+      <c r="Y36" s="74"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="7"/>
@@ -8479,49 +8526,49 @@
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
       <c r="AL36" s="7"/>
-      <c r="AM36" s="61" t="s">
+      <c r="AM36" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="AN36" s="60"/>
+      <c r="AN36" s="74"/>
       <c r="AO36" s="7"/>
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
     </row>
     <row r="37" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="58"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="10"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="62" t="s">
+      <c r="F37" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="63"/>
+      <c r="G37" s="67"/>
       <c r="H37" s="5"/>
       <c r="I37" s="2"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="62" t="s">
+      <c r="L37" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="63"/>
+      <c r="M37" s="67"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="62" t="s">
+      <c r="O37" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="P37" s="63"/>
+      <c r="P37" s="67"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="62" t="s">
+      <c r="R37" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="S37" s="63"/>
+      <c r="S37" s="67"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
-      <c r="X37" s="62" t="s">
+      <c r="X37" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="Y37" s="63"/>
+      <c r="Y37" s="67"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="5"/>
@@ -8535,22 +8582,22 @@
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
-      <c r="AM37" s="62" t="s">
+      <c r="AM37" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="AN37" s="63"/>
+      <c r="AN37" s="67"/>
       <c r="AO37" s="5"/>
       <c r="AP37" s="2"/>
       <c r="AQ37" s="2"/>
     </row>
     <row r="38" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B38" s="56">
+      <c r="B38" s="65">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="60"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="7"/>
       <c r="F38" s="4"/>
       <c r="G38" s="7"/>
@@ -8558,18 +8605,18 @@
       <c r="I38" s="4"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="61" t="s">
+      <c r="L38" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="60"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="74"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="61" t="s">
+      <c r="R38" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="S38" s="60"/>
+      <c r="S38" s="74"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
@@ -8596,11 +8643,11 @@
       <c r="AQ38" s="4"/>
     </row>
     <row r="39" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="57"/>
-      <c r="C39" s="66" t="s">
+      <c r="B39" s="71"/>
+      <c r="C39" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
       <c r="G39" s="3"/>
@@ -8608,18 +8655,18 @@
       <c r="I39" s="1"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="62" t="s">
+      <c r="L39" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="63"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="67"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="62" t="s">
+      <c r="R39" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="S39" s="63"/>
+      <c r="S39" s="67"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
@@ -8646,7 +8693,7 @@
       <c r="AQ39" s="1"/>
     </row>
     <row r="40" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="57"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="12"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -8690,7 +8737,7 @@
       <c r="AQ40" s="1"/>
     </row>
     <row r="41" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="57"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="11"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -8734,25 +8781,25 @@
       <c r="AQ41" s="1"/>
     </row>
     <row r="42" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="11"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="61" t="s">
+      <c r="I42" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="J42" s="60"/>
+      <c r="J42" s="74"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="61" t="s">
+      <c r="L42" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="60"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="74"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="1"/>
       <c r="S42" s="3"/>
@@ -8778,31 +8825,31 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
-      <c r="AP42" s="61" t="s">
+      <c r="AP42" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="AQ42" s="60"/>
+      <c r="AQ42" s="74"/>
     </row>
     <row r="43" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="58"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="10"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="62" t="s">
+      <c r="I43" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="J43" s="63"/>
+      <c r="J43" s="67"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="62" t="s">
+      <c r="L43" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="63"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="67"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="2"/>
       <c r="S43" s="5"/>
@@ -8828,13 +8875,13 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
-      <c r="AP43" s="62" t="s">
+      <c r="AP43" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="AQ43" s="63"/>
+      <c r="AQ43" s="67"/>
     </row>
     <row r="44" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B44" s="56">
+      <c r="B44" s="65">
         <v>4.2</v>
       </c>
       <c r="C44" s="12"/>
@@ -8843,10 +8890,10 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="61" t="s">
+      <c r="I44" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="J44" s="60"/>
+      <c r="J44" s="74"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -8854,10 +8901,10 @@
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="61" t="s">
+      <c r="R44" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="S44" s="60"/>
+      <c r="S44" s="74"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
@@ -8865,18 +8912,18 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
-      <c r="AA44" s="61" t="s">
+      <c r="AA44" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="AB44" s="60"/>
+      <c r="AB44" s="74"/>
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
-      <c r="AG44" s="61" t="s">
+      <c r="AG44" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="AH44" s="60"/>
+      <c r="AH44" s="74"/>
       <c r="AI44" s="7"/>
       <c r="AJ44" s="7"/>
       <c r="AK44" s="7"/>
@@ -8884,23 +8931,23 @@
       <c r="AM44" s="4"/>
       <c r="AN44" s="7"/>
       <c r="AO44" s="7"/>
-      <c r="AP44" s="61" t="s">
+      <c r="AP44" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="AQ44" s="60"/>
+      <c r="AQ44" s="74"/>
     </row>
     <row r="45" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="57"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="11"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="62" t="s">
+      <c r="I45" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="J45" s="63"/>
+      <c r="J45" s="67"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -8908,10 +8955,10 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="62" t="s">
+      <c r="R45" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="S45" s="63"/>
+      <c r="S45" s="67"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -8919,18 +8966,18 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
-      <c r="AA45" s="62" t="s">
+      <c r="AA45" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="AB45" s="63"/>
+      <c r="AB45" s="67"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
-      <c r="AG45" s="62" t="s">
+      <c r="AG45" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="AH45" s="63"/>
+      <c r="AH45" s="67"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
@@ -8938,13 +8985,13 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
-      <c r="AP45" s="62" t="s">
+      <c r="AP45" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="AQ45" s="63"/>
+      <c r="AQ45" s="67"/>
     </row>
     <row r="46" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="57"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="11"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -8988,7 +9035,7 @@
       <c r="AQ46" s="1"/>
     </row>
     <row r="47" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="57"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="11"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -9032,7 +9079,7 @@
       <c r="AQ47" s="1"/>
     </row>
     <row r="48" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B48" s="57"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="11"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -9048,10 +9095,10 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="61" t="s">
+      <c r="R48" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="S48" s="60"/>
+      <c r="S48" s="74"/>
       <c r="T48" s="3"/>
       <c r="U48" s="1"/>
       <c r="V48" s="3"/>
@@ -9078,7 +9125,7 @@
       <c r="AQ48" s="1"/>
     </row>
     <row r="49" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="58"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="10"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -9094,10 +9141,10 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
-      <c r="R49" s="62" t="s">
+      <c r="R49" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="S49" s="63"/>
+      <c r="S49" s="67"/>
       <c r="T49" s="5"/>
       <c r="U49" s="2"/>
       <c r="V49" s="5"/>
@@ -9124,13 +9171,13 @@
       <c r="AQ49" s="2"/>
     </row>
     <row r="50" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B50" s="56">
+      <c r="B50" s="65">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="60"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -9147,10 +9194,10 @@
       <c r="R50" s="4"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
-      <c r="U50" s="61" t="s">
+      <c r="U50" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="V50" s="60"/>
+      <c r="V50" s="74"/>
       <c r="W50" s="7"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="7"/>
@@ -9174,11 +9221,11 @@
       <c r="AQ50" s="4"/>
     </row>
     <row r="51" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="57"/>
-      <c r="C51" s="66" t="s">
+      <c r="B51" s="71"/>
+      <c r="C51" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="63"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -9195,10 +9242,10 @@
       <c r="R51" s="1"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-      <c r="U51" s="62" t="s">
+      <c r="U51" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="V51" s="63"/>
+      <c r="V51" s="67"/>
       <c r="W51" s="3"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="3"/>
@@ -9222,7 +9269,7 @@
       <c r="AQ51" s="1"/>
     </row>
     <row r="52" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="57"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
       <c r="E52" s="5"/>
@@ -9266,7 +9313,7 @@
       <c r="AQ52" s="1"/>
     </row>
     <row r="53" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="57"/>
+      <c r="B53" s="71"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -9310,7 +9357,7 @@
       <c r="AQ53" s="1"/>
     </row>
     <row r="54" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B54" s="57"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -9320,10 +9367,10 @@
       <c r="I54" s="1"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="61" t="s">
+      <c r="L54" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="M54" s="60"/>
+      <c r="M54" s="74"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -9334,10 +9381,10 @@
       <c r="U54" s="1"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-      <c r="X54" s="61" t="s">
+      <c r="X54" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="Y54" s="60"/>
+      <c r="Y54" s="74"/>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
@@ -9358,7 +9405,7 @@
       <c r="AQ54" s="1"/>
     </row>
     <row r="55" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="57"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -9368,10 +9415,10 @@
       <c r="I55" s="1"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="62" t="s">
+      <c r="L55" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="M55" s="63"/>
+      <c r="M55" s="67"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
@@ -9382,10 +9429,10 @@
       <c r="U55" s="1"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-      <c r="X55" s="62" t="s">
+      <c r="X55" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="Y55" s="63"/>
+      <c r="Y55" s="67"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
@@ -9406,7 +9453,7 @@
       <c r="AQ55" s="1"/>
     </row>
     <row r="56" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="57"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -9450,7 +9497,7 @@
       <c r="AQ56" s="1"/>
     </row>
     <row r="57" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="57"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -9494,17 +9541,17 @@
       <c r="AQ57" s="1"/>
     </row>
     <row r="58" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B58" s="57"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="61" t="s">
+      <c r="I58" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="J58" s="60"/>
+      <c r="J58" s="74"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -9540,17 +9587,17 @@
       <c r="AQ58" s="1"/>
     </row>
     <row r="59" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="57"/>
+      <c r="B59" s="71"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="62" t="s">
+      <c r="I59" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="J59" s="63"/>
+      <c r="J59" s="67"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -9586,7 +9633,7 @@
       <c r="AQ59" s="1"/>
     </row>
     <row r="60" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="57"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -9630,7 +9677,7 @@
       <c r="AQ60" s="1"/>
     </row>
     <row r="61" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="57"/>
+      <c r="B61" s="71"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -9674,7 +9721,7 @@
       <c r="AQ61" s="1"/>
     </row>
     <row r="62" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B62" s="57"/>
+      <c r="B62" s="71"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -9684,10 +9731,10 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="61" t="s">
+      <c r="L62" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="M62" s="60"/>
+      <c r="M62" s="74"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -9720,7 +9767,7 @@
       <c r="AQ62" s="1"/>
     </row>
     <row r="63" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="58"/>
+      <c r="B63" s="66"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -9730,10 +9777,10 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="62" t="s">
+      <c r="L63" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="M63" s="63"/>
+      <c r="M63" s="67"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
@@ -9766,7 +9813,7 @@
       <c r="AQ63" s="2"/>
     </row>
     <row r="64" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B64" s="56">
+      <c r="B64" s="65">
         <v>5.2</v>
       </c>
       <c r="C64" s="7"/>
@@ -9778,26 +9825,26 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
-      <c r="L64" s="61" t="s">
+      <c r="L64" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="M64" s="60"/>
+      <c r="M64" s="74"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
-      <c r="R64" s="61" t="s">
+      <c r="R64" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="S64" s="60"/>
+      <c r="S64" s="74"/>
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
-      <c r="X64" s="61" t="s">
+      <c r="X64" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="Y64" s="60"/>
+      <c r="Y64" s="74"/>
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
@@ -9811,16 +9858,16 @@
       <c r="AJ64" s="7"/>
       <c r="AK64" s="7"/>
       <c r="AL64" s="7"/>
-      <c r="AM64" s="61" t="s">
+      <c r="AM64" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="AN64" s="60"/>
+      <c r="AN64" s="74"/>
       <c r="AO64" s="7"/>
       <c r="AP64" s="4"/>
       <c r="AQ64" s="4"/>
     </row>
     <row r="65" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="57"/>
+      <c r="B65" s="71"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -9830,26 +9877,26 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="62" t="s">
+      <c r="L65" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="M65" s="63"/>
+      <c r="M65" s="67"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="62" t="s">
+      <c r="R65" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="S65" s="63"/>
+      <c r="S65" s="67"/>
       <c r="T65" s="3"/>
       <c r="U65" s="1"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-      <c r="X65" s="62" t="s">
+      <c r="X65" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="Y65" s="63"/>
+      <c r="Y65" s="67"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
@@ -9863,16 +9910,16 @@
       <c r="AJ65" s="3"/>
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
-      <c r="AM65" s="62" t="s">
+      <c r="AM65" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="AN65" s="63"/>
+      <c r="AN65" s="67"/>
       <c r="AO65" s="3"/>
       <c r="AP65" s="1"/>
       <c r="AQ65" s="1"/>
     </row>
     <row r="66" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="57"/>
+      <c r="B66" s="71"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -9916,7 +9963,7 @@
       <c r="AQ66" s="1"/>
     </row>
     <row r="67" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="57"/>
+      <c r="B67" s="71"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -9960,7 +10007,7 @@
       <c r="AQ67" s="1"/>
     </row>
     <row r="68" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B68" s="57"/>
+      <c r="B68" s="71"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -9973,10 +10020,10 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="61" t="s">
+      <c r="O68" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="P68" s="60"/>
+      <c r="P68" s="74"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
@@ -10006,7 +10053,7 @@
       <c r="AQ68" s="1"/>
     </row>
     <row r="69" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="57"/>
+      <c r="B69" s="71"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -10019,10 +10066,10 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="62" t="s">
+      <c r="O69" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="63"/>
+      <c r="P69" s="67"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
@@ -10052,7 +10099,7 @@
       <c r="AQ69" s="1"/>
     </row>
     <row r="70" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B70" s="57"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -10096,7 +10143,7 @@
       <c r="AQ70" s="1"/>
     </row>
     <row r="71" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="57"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -10140,7 +10187,7 @@
       <c r="AQ71" s="1"/>
     </row>
     <row r="72" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B72" s="57"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -10153,10 +10200,10 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="61" t="s">
+      <c r="O72" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="P72" s="60"/>
+      <c r="P72" s="74"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
@@ -10186,7 +10233,7 @@
       <c r="AQ72" s="1"/>
     </row>
     <row r="73" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="58"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -10199,10 +10246,10 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
-      <c r="O73" s="62" t="s">
+      <c r="O73" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="P73" s="63"/>
+      <c r="P73" s="67"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
@@ -10232,7 +10279,7 @@
       <c r="AQ73" s="2"/>
     </row>
     <row r="74" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B74" s="56">
+      <c r="B74" s="65">
         <v>6.1</v>
       </c>
       <c r="C74" s="7"/>
@@ -10247,23 +10294,23 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="61" t="s">
+      <c r="O74" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="P74" s="60"/>
+      <c r="P74" s="74"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
-      <c r="U74" s="61" t="s">
+      <c r="U74" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="V74" s="60"/>
+      <c r="V74" s="74"/>
       <c r="W74" s="7"/>
-      <c r="X74" s="61" t="s">
+      <c r="X74" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="Y74" s="60"/>
+      <c r="Y74" s="74"/>
       <c r="Z74" s="7"/>
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
@@ -10284,7 +10331,7 @@
       <c r="AQ74" s="4"/>
     </row>
     <row r="75" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="57"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -10297,23 +10344,23 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="62" t="s">
+      <c r="O75" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="P75" s="63"/>
+      <c r="P75" s="67"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
-      <c r="U75" s="62" t="s">
+      <c r="U75" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="V75" s="63"/>
+      <c r="V75" s="67"/>
       <c r="W75" s="3"/>
-      <c r="X75" s="62" t="s">
+      <c r="X75" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="Y75" s="63"/>
+      <c r="Y75" s="67"/>
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
@@ -10334,7 +10381,7 @@
       <c r="AQ75" s="1"/>
     </row>
     <row r="76" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="57"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -10378,7 +10425,7 @@
       <c r="AQ76" s="1"/>
     </row>
     <row r="77" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="57"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -10422,7 +10469,7 @@
       <c r="AQ77" s="1"/>
     </row>
     <row r="78" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B78" s="57"/>
+      <c r="B78" s="71"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -10435,10 +10482,10 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
-      <c r="O78" s="61" t="s">
+      <c r="O78" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="P78" s="60"/>
+      <c r="P78" s="74"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
@@ -10446,10 +10493,10 @@
       <c r="U78" s="1"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
-      <c r="X78" s="61" t="s">
+      <c r="X78" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="Y78" s="60"/>
+      <c r="Y78" s="74"/>
       <c r="Z78" s="3"/>
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
@@ -10460,10 +10507,10 @@
       <c r="AG78" s="3"/>
       <c r="AH78" s="3"/>
       <c r="AI78" s="3"/>
-      <c r="AJ78" s="61" t="s">
+      <c r="AJ78" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AK78" s="60"/>
+      <c r="AK78" s="74"/>
       <c r="AL78" s="3"/>
       <c r="AM78" s="3"/>
       <c r="AN78" s="3"/>
@@ -10472,7 +10519,7 @@
       <c r="AQ78" s="1"/>
     </row>
     <row r="79" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="58"/>
+      <c r="B79" s="66"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -10485,10 +10532,10 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
-      <c r="O79" s="62" t="s">
+      <c r="O79" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="P79" s="63"/>
+      <c r="P79" s="67"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
@@ -10496,10 +10543,10 @@
       <c r="U79" s="2"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
-      <c r="X79" s="108" t="s">
+      <c r="X79" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="Y79" s="109"/>
+      <c r="Y79" s="127"/>
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
@@ -10510,10 +10557,10 @@
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
       <c r="AI79" s="5"/>
-      <c r="AJ79" s="62" t="s">
+      <c r="AJ79" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="AK79" s="63"/>
+      <c r="AK79" s="67"/>
       <c r="AL79" s="5"/>
       <c r="AM79" s="5"/>
       <c r="AN79" s="5"/>
@@ -10522,7 +10569,7 @@
       <c r="AQ79" s="2"/>
     </row>
     <row r="80" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B80" s="56">
+      <c r="B80" s="65">
         <v>6.2</v>
       </c>
       <c r="C80" s="7"/>
@@ -10543,10 +10590,10 @@
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
-      <c r="U80" s="61" t="s">
+      <c r="U80" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="V80" s="60"/>
+      <c r="V80" s="74"/>
       <c r="W80" s="7"/>
       <c r="X80" s="4"/>
       <c r="Y80" s="7"/>
@@ -10560,10 +10607,10 @@
       <c r="AG80" s="7"/>
       <c r="AH80" s="7"/>
       <c r="AI80" s="7"/>
-      <c r="AJ80" s="61" t="s">
+      <c r="AJ80" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AK80" s="60"/>
+      <c r="AK80" s="74"/>
       <c r="AL80" s="7"/>
       <c r="AM80" s="7"/>
       <c r="AN80" s="7"/>
@@ -10572,7 +10619,7 @@
       <c r="AQ80" s="4"/>
     </row>
     <row r="81" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="57"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -10591,10 +10638,10 @@
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
-      <c r="U81" s="62" t="s">
+      <c r="U81" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="V81" s="63"/>
+      <c r="V81" s="67"/>
       <c r="W81" s="3"/>
       <c r="X81" s="1"/>
       <c r="Y81" s="3"/>
@@ -10608,10 +10655,10 @@
       <c r="AG81" s="3"/>
       <c r="AH81" s="3"/>
       <c r="AI81" s="3"/>
-      <c r="AJ81" s="62" t="s">
+      <c r="AJ81" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AK81" s="63"/>
+      <c r="AK81" s="67"/>
       <c r="AL81" s="3"/>
       <c r="AM81" s="3"/>
       <c r="AN81" s="3"/>
@@ -10620,7 +10667,7 @@
       <c r="AQ81" s="1"/>
     </row>
     <row r="82" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="57"/>
+      <c r="B82" s="71"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -10664,7 +10711,7 @@
       <c r="AQ82" s="1"/>
     </row>
     <row r="83" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="57"/>
+      <c r="B83" s="71"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -10708,7 +10755,7 @@
       <c r="AQ83" s="1"/>
     </row>
     <row r="84" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B84" s="57"/>
+      <c r="B84" s="71"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -10727,13 +10774,13 @@
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
-      <c r="U84" s="61" t="s">
+      <c r="U84" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="V84" s="67"/>
-      <c r="W84" s="67"/>
-      <c r="X84" s="67"/>
-      <c r="Y84" s="60"/>
+      <c r="V84" s="97"/>
+      <c r="W84" s="97"/>
+      <c r="X84" s="97"/>
+      <c r="Y84" s="74"/>
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
@@ -10744,21 +10791,21 @@
       <c r="AG84" s="3"/>
       <c r="AH84" s="3"/>
       <c r="AI84" s="3"/>
-      <c r="AJ84" s="61" t="s">
+      <c r="AJ84" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="AK84" s="60"/>
+      <c r="AK84" s="74"/>
       <c r="AL84" s="3"/>
       <c r="AM84" s="3"/>
       <c r="AN84" s="3"/>
       <c r="AO84" s="3"/>
-      <c r="AP84" s="61" t="s">
+      <c r="AP84" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="AQ84" s="60"/>
+      <c r="AQ84" s="74"/>
     </row>
     <row r="85" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="57"/>
+      <c r="B85" s="71"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -10777,13 +10824,13 @@
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
-      <c r="U85" s="62" t="s">
+      <c r="U85" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="V85" s="66"/>
-      <c r="W85" s="66"/>
-      <c r="X85" s="66"/>
-      <c r="Y85" s="63"/>
+      <c r="V85" s="93"/>
+      <c r="W85" s="93"/>
+      <c r="X85" s="93"/>
+      <c r="Y85" s="67"/>
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
@@ -10794,21 +10841,21 @@
       <c r="AG85" s="3"/>
       <c r="AH85" s="3"/>
       <c r="AI85" s="3"/>
-      <c r="AJ85" s="62" t="s">
+      <c r="AJ85" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AK85" s="63"/>
+      <c r="AK85" s="67"/>
       <c r="AL85" s="3"/>
       <c r="AM85" s="3"/>
       <c r="AN85" s="3"/>
       <c r="AO85" s="3"/>
-      <c r="AP85" s="62" t="s">
+      <c r="AP85" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AQ85" s="63"/>
+      <c r="AQ85" s="67"/>
     </row>
     <row r="86" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B86" s="57"/>
+      <c r="B86" s="71"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -10852,7 +10899,7 @@
       <c r="AQ86" s="1"/>
     </row>
     <row r="87" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="57"/>
+      <c r="B87" s="71"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -10896,99 +10943,254 @@
       <c r="AQ87" s="1"/>
     </row>
     <row r="88" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B88" s="57"/>
-      <c r="C88" s="67" t="s">
+      <c r="B88" s="71"/>
+      <c r="C88" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="67"/>
-      <c r="L88" s="67"/>
-      <c r="M88" s="67"/>
-      <c r="N88" s="67"/>
-      <c r="O88" s="67"/>
-      <c r="P88" s="67"/>
-      <c r="Q88" s="67"/>
-      <c r="R88" s="67"/>
-      <c r="S88" s="67"/>
-      <c r="T88" s="67"/>
-      <c r="U88" s="67"/>
-      <c r="V88" s="67"/>
-      <c r="W88" s="67"/>
-      <c r="X88" s="67"/>
-      <c r="Y88" s="67"/>
-      <c r="Z88" s="67"/>
-      <c r="AA88" s="67"/>
-      <c r="AB88" s="67"/>
-      <c r="AC88" s="67"/>
-      <c r="AD88" s="67"/>
-      <c r="AE88" s="67"/>
-      <c r="AF88" s="67"/>
-      <c r="AG88" s="67"/>
-      <c r="AH88" s="67"/>
-      <c r="AI88" s="67"/>
-      <c r="AJ88" s="67"/>
-      <c r="AK88" s="67"/>
-      <c r="AL88" s="67"/>
-      <c r="AM88" s="67"/>
-      <c r="AN88" s="67"/>
-      <c r="AO88" s="67"/>
-      <c r="AP88" s="67"/>
-      <c r="AQ88" s="60"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="97"/>
+      <c r="F88" s="97"/>
+      <c r="G88" s="97"/>
+      <c r="H88" s="97"/>
+      <c r="I88" s="97"/>
+      <c r="J88" s="97"/>
+      <c r="K88" s="97"/>
+      <c r="L88" s="97"/>
+      <c r="M88" s="97"/>
+      <c r="N88" s="97"/>
+      <c r="O88" s="97"/>
+      <c r="P88" s="97"/>
+      <c r="Q88" s="97"/>
+      <c r="R88" s="97"/>
+      <c r="S88" s="97"/>
+      <c r="T88" s="97"/>
+      <c r="U88" s="97"/>
+      <c r="V88" s="97"/>
+      <c r="W88" s="97"/>
+      <c r="X88" s="97"/>
+      <c r="Y88" s="97"/>
+      <c r="Z88" s="97"/>
+      <c r="AA88" s="97"/>
+      <c r="AB88" s="97"/>
+      <c r="AC88" s="97"/>
+      <c r="AD88" s="97"/>
+      <c r="AE88" s="97"/>
+      <c r="AF88" s="97"/>
+      <c r="AG88" s="97"/>
+      <c r="AH88" s="97"/>
+      <c r="AI88" s="97"/>
+      <c r="AJ88" s="97"/>
+      <c r="AK88" s="97"/>
+      <c r="AL88" s="97"/>
+      <c r="AM88" s="97"/>
+      <c r="AN88" s="97"/>
+      <c r="AO88" s="97"/>
+      <c r="AP88" s="97"/>
+      <c r="AQ88" s="74"/>
     </row>
     <row r="89" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="58"/>
-      <c r="C89" s="66" t="s">
+      <c r="B89" s="66"/>
+      <c r="C89" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="66"/>
-      <c r="M89" s="66"/>
-      <c r="N89" s="66"/>
-      <c r="O89" s="66"/>
-      <c r="P89" s="66"/>
-      <c r="Q89" s="66"/>
-      <c r="R89" s="66"/>
-      <c r="S89" s="66"/>
-      <c r="T89" s="66"/>
-      <c r="U89" s="66"/>
-      <c r="V89" s="66"/>
-      <c r="W89" s="66"/>
-      <c r="X89" s="66"/>
-      <c r="Y89" s="66"/>
-      <c r="Z89" s="66"/>
-      <c r="AA89" s="66"/>
-      <c r="AB89" s="66"/>
-      <c r="AC89" s="66"/>
-      <c r="AD89" s="66"/>
-      <c r="AE89" s="66"/>
-      <c r="AF89" s="66"/>
-      <c r="AG89" s="66"/>
-      <c r="AH89" s="66"/>
-      <c r="AI89" s="66"/>
-      <c r="AJ89" s="66"/>
-      <c r="AK89" s="66"/>
-      <c r="AL89" s="66"/>
-      <c r="AM89" s="66"/>
-      <c r="AN89" s="66"/>
-      <c r="AO89" s="66"/>
-      <c r="AP89" s="66"/>
-      <c r="AQ89" s="63"/>
+      <c r="D89" s="93"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="93"/>
+      <c r="H89" s="93"/>
+      <c r="I89" s="93"/>
+      <c r="J89" s="93"/>
+      <c r="K89" s="93"/>
+      <c r="L89" s="93"/>
+      <c r="M89" s="93"/>
+      <c r="N89" s="93"/>
+      <c r="O89" s="93"/>
+      <c r="P89" s="93"/>
+      <c r="Q89" s="93"/>
+      <c r="R89" s="93"/>
+      <c r="S89" s="93"/>
+      <c r="T89" s="93"/>
+      <c r="U89" s="93"/>
+      <c r="V89" s="93"/>
+      <c r="W89" s="93"/>
+      <c r="X89" s="93"/>
+      <c r="Y89" s="93"/>
+      <c r="Z89" s="93"/>
+      <c r="AA89" s="93"/>
+      <c r="AB89" s="93"/>
+      <c r="AC89" s="93"/>
+      <c r="AD89" s="93"/>
+      <c r="AE89" s="93"/>
+      <c r="AF89" s="93"/>
+      <c r="AG89" s="93"/>
+      <c r="AH89" s="93"/>
+      <c r="AI89" s="93"/>
+      <c r="AJ89" s="93"/>
+      <c r="AK89" s="93"/>
+      <c r="AL89" s="93"/>
+      <c r="AM89" s="93"/>
+      <c r="AN89" s="93"/>
+      <c r="AO89" s="93"/>
+      <c r="AP89" s="93"/>
+      <c r="AQ89" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="AJ81:AK81"/>
+    <mergeCell ref="U84:Y84"/>
+    <mergeCell ref="AJ84:AK84"/>
+    <mergeCell ref="AP84:AQ84"/>
+    <mergeCell ref="U85:Y85"/>
+    <mergeCell ref="AJ79:AK79"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="U80:V80"/>
+    <mergeCell ref="AJ80:AK80"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="U74:V74"/>
+    <mergeCell ref="B64:B73"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="AJ85:AK85"/>
+    <mergeCell ref="AP85:AQ85"/>
+    <mergeCell ref="B80:B89"/>
+    <mergeCell ref="C89:AQ89"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="AM64:AN64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="AM65:AN65"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="C88:AQ88"/>
+    <mergeCell ref="AJ78:AK78"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="B50:B63"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="AP43:AQ43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AP44:AQ44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AP45:AQ45"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="AA31:AE31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="AP28:AQ28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AP29:AQ29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="AA30:AE30"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="AG8:AH9"/>
+    <mergeCell ref="AJ8:AK9"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="AD16:AH16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="AM8:AN9"/>
     <mergeCell ref="B2:AQ5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:G7"/>
@@ -11013,161 +11215,6 @@
     <mergeCell ref="O8:P9"/>
     <mergeCell ref="R8:S9"/>
     <mergeCell ref="U8:V9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="AM8:AN9"/>
-    <mergeCell ref="AD16:AH16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="AG8:AH9"/>
-    <mergeCell ref="AJ8:AK9"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="AP28:AQ28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AP29:AQ29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="AA30:AE30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="AA31:AE31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AP45:AQ45"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="AP42:AQ42"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="B50:B63"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="AP43:AQ43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AP44:AQ44"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="U74:V74"/>
-    <mergeCell ref="B64:B73"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="AJ85:AK85"/>
-    <mergeCell ref="AP85:AQ85"/>
-    <mergeCell ref="B80:B89"/>
-    <mergeCell ref="C89:AQ89"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="AM64:AN64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="AM65:AN65"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="C88:AQ88"/>
-    <mergeCell ref="AJ78:AK78"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="AJ79:AK79"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="U80:V80"/>
-    <mergeCell ref="AJ80:AK80"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="AJ81:AK81"/>
-    <mergeCell ref="U84:Y84"/>
-    <mergeCell ref="AJ84:AK84"/>
-    <mergeCell ref="AP84:AQ84"/>
-    <mergeCell ref="U85:Y85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11214,13 +11261,13 @@
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="61" t="s">
         <v>170</v>
       </c>
     </row>
@@ -11228,18 +11275,18 @@
       <c r="B5" s="28"/>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="128" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="65" t="s">
         <v>173</v>
       </c>
       <c r="E6" s="16" t="s">
@@ -11253,9 +11300,9 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="127"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="57"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="19"/>
       <c r="F7" s="20" t="s">
         <v>165</v>
@@ -11265,9 +11312,9 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="127"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="22"/>
       <c r="F8" s="23" t="s">
         <v>177</v>
@@ -11277,9 +11324,9 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="127"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="56" t="s">
+      <c r="B9" s="129"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="65" t="s">
         <v>164</v>
       </c>
       <c r="E9" s="16" t="s">
@@ -11293,9 +11340,9 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="127"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="57"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="19" t="s">
         <v>181</v>
       </c>
@@ -11307,9 +11354,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="127"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="57"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="19"/>
       <c r="F11" s="20" t="s">
         <v>182</v>
@@ -11319,9 +11366,9 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="127"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="22"/>
       <c r="F12" s="23" t="s">
         <v>184</v>
@@ -11331,11 +11378,11 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="127"/>
-      <c r="C13" s="91" t="s">
+      <c r="B13" s="129"/>
+      <c r="C13" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="65" t="s">
         <v>160</v>
       </c>
       <c r="E13" s="16" t="s">
@@ -11349,9 +11396,9 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="127"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="57"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="19" t="s">
         <v>186</v>
       </c>
@@ -11363,9 +11410,9 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="127"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="57"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
         <v>189</v>
@@ -11373,9 +11420,9 @@
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="127"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="57"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
         <v>190</v>
@@ -11383,9 +11430,9 @@
       <c r="G16" s="21"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="127"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="57"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="19"/>
       <c r="F17" s="20" t="s">
         <v>191</v>
@@ -11393,9 +11440,9 @@
       <c r="G17" s="21"/>
     </row>
     <row r="18" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="127"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="58"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23" t="s">
         <v>152</v>
@@ -11403,9 +11450,9 @@
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="127"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="56" t="s">
+      <c r="B19" s="129"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="65" t="s">
         <v>153</v>
       </c>
       <c r="E19" s="16" t="s">
@@ -11417,9 +11464,9 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="127"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="57"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
       <c r="G20" s="21" t="s">
@@ -11427,9 +11474,9 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="127"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="57"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21" t="s">
@@ -11437,9 +11484,9 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="127"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="58"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
       <c r="G22" s="24" t="s">
@@ -11447,11 +11494,11 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="127"/>
-      <c r="C23" s="129" t="s">
+      <c r="B23" s="129"/>
+      <c r="C23" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="65" t="s">
         <v>155</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -11465,9 +11512,9 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="127"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="19" t="s">
         <v>199</v>
       </c>
@@ -11479,9 +11526,9 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="127"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="22" t="s">
         <v>157</v>
       </c>
@@ -11493,8 +11540,8 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="128"/>
-      <c r="C26" s="130"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="132"/>
       <c r="D26" s="10" t="s">
         <v>156</v>
       </c>
@@ -11522,4 +11569,267 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="134" t="s">
+        <v>430</v>
+      </c>
+      <c r="C2" s="134" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="136"/>
+      <c r="E2" s="135" t="s">
+        <v>429</v>
+      </c>
+      <c r="F2" s="136"/>
+    </row>
+    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="139"/>
+      <c r="C3" s="138" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="137">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="137">
+        <v>218</v>
+      </c>
+      <c r="D4" s="21">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19">
+        <v>170</v>
+      </c>
+      <c r="F4" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="137">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="137">
+        <v>305</v>
+      </c>
+      <c r="D5" s="21">
+        <v>5</v>
+      </c>
+      <c r="E5" s="19">
+        <v>207</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="137">
+        <v>2.1</v>
+      </c>
+      <c r="C6" s="137">
+        <v>220</v>
+      </c>
+      <c r="D6" s="21">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>178</v>
+      </c>
+      <c r="F6" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="137">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C7" s="137">
+        <v>182</v>
+      </c>
+      <c r="D7" s="21">
+        <v>2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>179</v>
+      </c>
+      <c r="F7" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="137">
+        <v>3.1</v>
+      </c>
+      <c r="C8" s="137">
+        <v>147</v>
+      </c>
+      <c r="D8" s="21">
+        <v>2</v>
+      </c>
+      <c r="E8" s="19">
+        <v>182</v>
+      </c>
+      <c r="F8" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="137">
+        <v>3.2</v>
+      </c>
+      <c r="C9" s="137">
+        <v>154</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>226</v>
+      </c>
+      <c r="F9" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="137">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C10" s="137">
+        <v>228</v>
+      </c>
+      <c r="D10" s="21">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19">
+        <v>193</v>
+      </c>
+      <c r="F10" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="137">
+        <v>4.2</v>
+      </c>
+      <c r="C11" s="137">
+        <v>148</v>
+      </c>
+      <c r="D11" s="21">
+        <v>5</v>
+      </c>
+      <c r="E11" s="19">
+        <v>319</v>
+      </c>
+      <c r="F11" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="137">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C12" s="137">
+        <v>279</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19">
+        <v>330</v>
+      </c>
+      <c r="F12" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="137">
+        <v>5.2</v>
+      </c>
+      <c r="C13" s="137">
+        <v>265</v>
+      </c>
+      <c r="D13" s="21">
+        <v>4</v>
+      </c>
+      <c r="E13" s="19">
+        <v>300</v>
+      </c>
+      <c r="F13" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="137">
+        <v>6.1</v>
+      </c>
+      <c r="C14" s="137">
+        <v>226</v>
+      </c>
+      <c r="D14" s="21">
+        <v>4</v>
+      </c>
+      <c r="E14" s="19">
+        <v>332</v>
+      </c>
+      <c r="F14" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="138">
+        <v>6.2</v>
+      </c>
+      <c r="C15" s="138">
+        <v>155</v>
+      </c>
+      <c r="D15" s="24">
+        <v>4</v>
+      </c>
+      <c r="E15" s="22">
+        <v>291</v>
+      </c>
+      <c r="F15" s="24">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>